--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -27,15 +27,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>平台</t>
   </si>
   <si>
+    <t>开源</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
     <t>工具</t>
   </si>
   <si>
-    <t>开源</t>
+    <t>（工具）开源</t>
   </si>
   <si>
     <t>用途</t>
@@ -65,10 +71,13 @@
     <t>Archery</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
     <t>GoInception</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>审核</t>
@@ -90,7 +99,14 @@
     <t>SOAR</t>
   </si>
   <si>
-    <t>pawsql</t>
+    <t>分析SQL
+（可补充查询审核的不足）</t>
+  </si>
+  <si>
+    <t>PawSQL</t>
+  </si>
+  <si>
+    <t>GO</t>
   </si>
   <si>
     <t>sqle</t>
@@ -462,7 +478,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -480,6 +496,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -609,7 +651,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,34 +663,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -733,7 +775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,14 +785,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1066,137 +1114,202 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B7:L15"/>
+  <dimension ref="B1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.283185840708" customWidth="1"/>
-    <col min="3" max="5" width="12.8849557522124" customWidth="1"/>
-    <col min="6" max="6" width="13.8141592920354" customWidth="1"/>
-    <col min="7" max="7" width="17.7964601769912" customWidth="1"/>
-    <col min="8" max="8" width="11.8849557522124" customWidth="1"/>
-    <col min="9" max="9" width="18.858407079646" customWidth="1"/>
-    <col min="10" max="10" width="11.6194690265487" customWidth="1"/>
-    <col min="11" max="11" width="16.7345132743363" customWidth="1"/>
-    <col min="12" max="12" width="17.7964601769912" customWidth="1"/>
+    <col min="3" max="3" width="5.38938053097345" customWidth="1"/>
+    <col min="4" max="4" width="13.283185840708" customWidth="1"/>
+    <col min="5" max="7" width="12.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="13.8141592920354" customWidth="1"/>
+    <col min="9" max="9" width="17.7964601769912" customWidth="1"/>
+    <col min="10" max="10" width="11.8849557522124" customWidth="1"/>
+    <col min="11" max="11" width="18.858407079646" customWidth="1"/>
+    <col min="12" max="12" width="11.6194690265487" customWidth="1"/>
+    <col min="13" max="13" width="16.7345132743363" customWidth="1"/>
+    <col min="14" max="14" width="17.7964601769912" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:12">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+    <row r="1" ht="36" customHeight="1"/>
+    <row r="2" spans="2:14">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
-    <row r="8" spans="2:12">
-      <c r="B8" s="2" t="s">
+    <row r="3" spans="2:14">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" ht="27" spans="2:12">
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="4" ht="27" spans="2:14">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+    <row r="5" ht="40.5" spans="2:14">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
+    <row r="8" ht="20" customHeight="1" spans="2:14">
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
+    <row r="9" spans="2:14">
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
+    <row r="10" spans="2:14">
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B7:I7"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>平台</t>
   </si>
@@ -50,15 +50,15 @@
     <t>支持的数据库</t>
   </si>
   <si>
-    <t>ddl、dml-审核</t>
+    <t>ddl-审核</t>
+  </si>
+  <si>
+    <t>dml-审核</t>
   </si>
   <si>
     <t>查询-审核</t>
   </si>
   <si>
-    <t>SQL分析</t>
-  </si>
-  <si>
     <t>配置方式</t>
   </si>
   <si>
@@ -83,24 +83,21 @@
     <t>审核</t>
   </si>
   <si>
-    <t xml:space="preserve"> Mysql</t>
+    <t>Mysql、
+MariaDB、
+TiDB等</t>
   </si>
   <si>
     <t>支持</t>
   </si>
   <si>
-    <t>不支持</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>SOAR</t>
-  </si>
-  <si>
-    <t>分析SQL
-（可补充查询审核的不足）</t>
+    <t>命令行配置</t>
+  </si>
+  <si>
+    <t>无web页提供</t>
+  </si>
+  <si>
+    <t>可以配置不同的审批级别</t>
   </si>
   <si>
     <t>PawSQL</t>
@@ -478,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -496,32 +493,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -651,7 +622,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,34 +634,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,7 +746,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,22 +756,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1114,10 +1079,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:N10"/>
+  <dimension ref="B1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1127,11 +1092,10 @@
     <col min="4" max="4" width="13.283185840708" customWidth="1"/>
     <col min="5" max="7" width="12.8849557522124" customWidth="1"/>
     <col min="8" max="8" width="13.8141592920354" customWidth="1"/>
-    <col min="9" max="9" width="17.7964601769912" customWidth="1"/>
-    <col min="10" max="10" width="11.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="18.858407079646" customWidth="1"/>
+    <col min="9" max="10" width="9.38938053097345" customWidth="1"/>
+    <col min="11" max="11" width="11.8849557522124" customWidth="1"/>
     <col min="12" max="12" width="11.6194690265487" customWidth="1"/>
-    <col min="13" max="13" width="16.7345132743363" customWidth="1"/>
+    <col min="13" max="13" width="19.8407079646018" customWidth="1"/>
     <col min="14" max="14" width="17.7964601769912" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1192,7 +1156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="2:14">
+    <row r="4" ht="56" customHeight="1" spans="2:14">
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1202,114 +1166,96 @@
       <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="M4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" ht="40.5" spans="2:14">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
+    <row r="6" ht="45" customHeight="1"/>
+    <row r="7" ht="20" customHeight="1" spans="2:14">
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="2:14">
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7" t="s">
+    <row r="8" spans="2:14">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="B1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>平台</t>
   </si>
@@ -38,6 +38,9 @@
     <t>语言</t>
   </si>
   <si>
+    <t>数据库</t>
+  </si>
+  <si>
     <t>工具</t>
   </si>
   <si>
@@ -77,10 +80,13 @@
     <t>Python</t>
   </si>
   <si>
+    <t>Mysql</t>
+  </si>
+  <si>
     <t>GoInception</t>
   </si>
   <si>
-    <t>审核</t>
+    <t>审核/执行</t>
   </si>
   <si>
     <t>Mysql、
@@ -97,7 +103,19 @@
     <t>无web页提供</t>
   </si>
   <si>
-    <t>可以配置不同的审批级别</t>
+    <t>需要修改源码</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Oracle Instant Client</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>执行</t>
   </si>
   <si>
     <t>PawSQL</t>
@@ -475,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -493,6 +511,32 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -622,7 +666,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,34 +678,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -746,24 +790,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1079,135 +1126,174 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:N9"/>
+  <dimension ref="B1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G4" sqref="B2:P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="13.283185840708" customWidth="1"/>
     <col min="3" max="3" width="5.38938053097345" customWidth="1"/>
-    <col min="4" max="4" width="13.283185840708" customWidth="1"/>
-    <col min="5" max="7" width="12.8849557522124" customWidth="1"/>
-    <col min="8" max="8" width="13.8141592920354" customWidth="1"/>
-    <col min="9" max="10" width="9.38938053097345" customWidth="1"/>
-    <col min="11" max="11" width="11.8849557522124" customWidth="1"/>
-    <col min="12" max="12" width="11.6194690265487" customWidth="1"/>
-    <col min="13" max="13" width="19.8407079646018" customWidth="1"/>
-    <col min="14" max="14" width="17.7964601769912" customWidth="1"/>
+    <col min="4" max="5" width="13.283185840708" customWidth="1"/>
+    <col min="6" max="9" width="12.8849557522124" customWidth="1"/>
+    <col min="10" max="10" width="13.8141592920354" customWidth="1"/>
+    <col min="11" max="12" width="9.38938053097345" customWidth="1"/>
+    <col min="13" max="13" width="11.8849557522124" customWidth="1"/>
+    <col min="14" max="14" width="11.6194690265487" customWidth="1"/>
+    <col min="15" max="15" width="19.8407079646018" customWidth="1"/>
+    <col min="16" max="16" width="17.7964601769912" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1"/>
-    <row r="2" spans="2:14">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="2:16">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="2:14">
+    <row r="3" ht="56" customHeight="1" spans="2:16">
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" ht="56" customHeight="1" spans="2:14">
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="4" ht="40.5" spans="2:16">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" ht="45" customHeight="1"/>
+    <row r="6" ht="20" customHeight="1" spans="2:16">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
-    <row r="6" ht="45" customHeight="1"/>
-    <row r="7" ht="20" customHeight="1" spans="2:14">
+    <row r="7" spans="2:16">
       <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1218,10 +1304,12 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:16">
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1235,27 +1323,14 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:K2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>平台</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>执行</t>
+  </si>
+  <si>
+    <t>PgSql</t>
   </si>
   <si>
     <t>PawSQL</t>
@@ -493,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -511,32 +514,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -666,7 +643,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,34 +655,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,20 +774,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1126,13 +1103,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:P8"/>
+  <dimension ref="B1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="B2:P4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.283185840708" customWidth="1"/>
     <col min="3" max="3" width="5.38938053097345" customWidth="1"/>
@@ -1215,7 +1192,7 @@
       <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="3" t="s">
@@ -1238,99 +1215,118 @@
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:16">
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
-    <row r="5" ht="45" customHeight="1"/>
-    <row r="6" ht="20" customHeight="1" spans="2:16">
-      <c r="B6" s="5" t="s">
+    <row r="5" ht="45" customHeight="1" spans="2:16">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" ht="45" customHeight="1"/>
+    <row r="7" ht="20" customHeight="1" spans="2:16">
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>平台</t>
   </si>
@@ -50,6 +50,9 @@
     <t>用途</t>
   </si>
   <si>
+    <t>底层依赖</t>
+  </si>
+  <si>
     <t>支持的数据库</t>
   </si>
   <si>
@@ -87,6 +90,32 @@
   </si>
   <si>
     <t>审核/执行</t>
+  </si>
+  <si>
+    <r>
+      <t>TiDB
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语法解析器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>Mysql、
@@ -104,6 +133,10 @@
   </si>
   <si>
     <t>需要修改源码</t>
+  </si>
+  <si>
+    <t>inception
+（审核工具）</t>
   </si>
   <si>
     <t>Oracle</t>
@@ -143,7 +176,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +326,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -786,8 +826,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1103,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:P9"/>
+  <dimension ref="B1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1114,17 +1154,19 @@
     <col min="2" max="2" width="13.283185840708" customWidth="1"/>
     <col min="3" max="3" width="5.38938053097345" customWidth="1"/>
     <col min="4" max="5" width="13.283185840708" customWidth="1"/>
-    <col min="6" max="9" width="12.8849557522124" customWidth="1"/>
-    <col min="10" max="10" width="13.8141592920354" customWidth="1"/>
-    <col min="11" max="12" width="9.38938053097345" customWidth="1"/>
-    <col min="13" max="13" width="11.8849557522124" customWidth="1"/>
-    <col min="14" max="14" width="11.6194690265487" customWidth="1"/>
-    <col min="15" max="15" width="19.8407079646018" customWidth="1"/>
-    <col min="16" max="16" width="17.7964601769912" customWidth="1"/>
+    <col min="6" max="7" width="12.8849557522124" customWidth="1"/>
+    <col min="8" max="8" width="13.4336283185841" customWidth="1"/>
+    <col min="9" max="10" width="12.8849557522124" customWidth="1"/>
+    <col min="11" max="11" width="13.8141592920354" customWidth="1"/>
+    <col min="12" max="13" width="9.38938053097345" customWidth="1"/>
+    <col min="14" max="14" width="11.8849557522124" customWidth="1"/>
+    <col min="15" max="15" width="11.6194690265487" customWidth="1"/>
+    <col min="16" max="16" width="19.8407079646018" customWidth="1"/>
+    <col min="17" max="17" width="17.7964601769912" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1"/>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:17">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,128 +1210,137 @@
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" ht="56" customHeight="1" spans="2:16">
+    <row r="3" ht="56" customHeight="1" spans="2:17">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="K3" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="P3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" ht="40.5" spans="2:16">
+    <row r="4" ht="56" customHeight="1" spans="2:17">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="7"/>
     </row>
-    <row r="5" ht="45" customHeight="1" spans="2:16">
+    <row r="5" ht="40.5" spans="2:17">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
     </row>
-    <row r="6" ht="45" customHeight="1"/>
-    <row r="7" ht="20" customHeight="1" spans="2:16">
-      <c r="B7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
+    <row r="6" ht="45" customHeight="1" spans="2:17">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="7" ht="45" customHeight="1"/>
+    <row r="8" ht="20" customHeight="1" spans="2:17">
       <c r="B8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1302,10 +1353,11 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:17">
       <c r="B9" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1321,12 +1373,33 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>平台</t>
   </si>
@@ -38,12 +38,18 @@
     <t>语言</t>
   </si>
   <si>
+    <t>OPEN API</t>
+  </si>
+  <si>
     <t>数据库</t>
   </si>
   <si>
     <t>工具</t>
   </si>
   <si>
+    <t>规则数量</t>
+  </si>
+  <si>
     <t>（工具）开源</t>
   </si>
   <si>
@@ -83,16 +89,29 @@
     <t>Python</t>
   </si>
   <si>
+    <t>支持</t>
+  </si>
+  <si>
     <t>Mysql</t>
   </si>
   <si>
     <t>GoInception</t>
   </si>
   <si>
+    <t>79左右（包括配置）</t>
+  </si>
+  <si>
     <t>审核/执行</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>TiDB
 （</t>
     </r>
@@ -123,9 +142,6 @@
 TiDB等</t>
   </si>
   <si>
-    <t>支持</t>
-  </si>
-  <si>
     <t>命令行配置</t>
   </si>
   <si>
@@ -154,16 +170,99 @@
     <t>PgSql</t>
   </si>
   <si>
+    <t>sqle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专业版本-是（有源码）
+社区版本-是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（源码不确定）
+商业版本-否</t>
+    </r>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">支持
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（支持自定义审批规则，但在线试用那个社区版没有）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sqle-tidb-plugin
+sqle-td-mysql-plugin
+sqle-pg-plugin
+sqle-ob-mysql-plugin
+sqle-mycat-plugin
+sqle-ms-plugin
+sqle-db2-plugin.jar
+sqle-oracle-plugin.jar
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有详细的插件开发流程，如果有新数据库，需要自己开发插件</t>
+    </r>
+  </si>
+  <si>
+    <t>openGauss</t>
+  </si>
+  <si>
+    <t>SQM</t>
+  </si>
+  <si>
     <t>PawSQL</t>
   </si>
   <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <t>sqle</t>
-  </si>
-  <si>
-    <t>sqm</t>
+    <t>MySQL</t>
   </si>
 </sst>
 </file>
@@ -185,6 +284,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -328,13 +434,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -536,7 +635,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -554,6 +653,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -677,137 +813,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,16 +956,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1143,30 +1345,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:Q10"/>
+  <dimension ref="B2:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="13.283185840708" customWidth="1"/>
-    <col min="3" max="3" width="5.38938053097345" customWidth="1"/>
-    <col min="4" max="5" width="13.283185840708" customWidth="1"/>
-    <col min="6" max="7" width="12.8849557522124" customWidth="1"/>
-    <col min="8" max="8" width="13.4336283185841" customWidth="1"/>
-    <col min="9" max="10" width="12.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="13.8141592920354" customWidth="1"/>
-    <col min="12" max="13" width="9.38938053097345" customWidth="1"/>
-    <col min="14" max="14" width="11.8849557522124" customWidth="1"/>
-    <col min="15" max="15" width="11.6194690265487" customWidth="1"/>
-    <col min="16" max="16" width="19.8407079646018" customWidth="1"/>
-    <col min="17" max="17" width="17.7964601769912" customWidth="1"/>
+    <col min="3" max="3" width="34.5132743362832" customWidth="1"/>
+    <col min="4" max="4" width="13.283185840708" customWidth="1"/>
+    <col min="5" max="5" width="31.7699115044248" customWidth="1"/>
+    <col min="6" max="6" width="13.283185840708" customWidth="1"/>
+    <col min="7" max="8" width="12.8849557522124" customWidth="1"/>
+    <col min="9" max="9" width="13.4336283185841" customWidth="1"/>
+    <col min="10" max="10" width="12.8849557522124" customWidth="1"/>
+    <col min="11" max="11" width="25.4159292035398" customWidth="1"/>
+    <col min="12" max="12" width="13.8141592920354" customWidth="1"/>
+    <col min="13" max="14" width="9.38938053097345" customWidth="1"/>
+    <col min="15" max="15" width="11.8849557522124" customWidth="1"/>
+    <col min="16" max="16" width="11.6194690265487" customWidth="1"/>
+    <col min="17" max="17" width="19.8407079646018" customWidth="1"/>
+    <col min="18" max="18" width="17.7964601769912" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1"/>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:18">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,224 +1386,459 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" ht="56" customHeight="1" spans="2:17">
+    <row r="3" ht="40.5" spans="2:18">
       <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="N3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="2:18">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="26"/>
+    </row>
+    <row r="5" ht="40.5" spans="2:18">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="4:11">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="K7" s="27"/>
+    </row>
+    <row r="9" ht="29" customHeight="1" spans="2:18">
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
-    <row r="4" ht="56" customHeight="1" spans="2:17">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="7"/>
+    <row r="10" spans="2:18">
+      <c r="B10" s="6"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
-    <row r="5" ht="40.5" spans="2:17">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="4" t="s">
+    <row r="11" spans="2:18">
+      <c r="B11" s="6"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
-    <row r="6" ht="45" customHeight="1" spans="2:17">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+    <row r="12" ht="135" customHeight="1" spans="2:18">
+      <c r="B12" s="7"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
-    <row r="7" ht="45" customHeight="1"/>
-    <row r="8" ht="20" customHeight="1" spans="2:17">
-      <c r="B8" s="4" t="s">
+    <row r="16" spans="2:18">
+      <c r="B16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
     </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="4" t="s">
+    <row r="17" spans="2:18">
+      <c r="B17" s="20"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="20"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="22"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="2">
+        <v>171</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="3"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
     </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+    <row r="22" spans="2:18">
+      <c r="B22" s="3"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" ht="78" customHeight="1" spans="2:18">
+      <c r="B23" s="3"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="21">
     <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B23"/>
     <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C20:C23"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="K9:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -7,7 +7,9 @@
     <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
-    <sheet name="技术支持" sheetId="1" r:id="rId1"/>
+    <sheet name="技术支持（友商参考）" sheetId="1" r:id="rId1"/>
+    <sheet name="需求" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>平台</t>
   </si>
@@ -104,16 +106,73 @@
     <t>审核/执行</t>
   </si>
   <si>
+    <r>
+      <t>TiDB
+（</t>
+    </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>语法解析器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TiDB
-（</t>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>Mysql、
+MariaDB、
+TiDB等</t>
+  </si>
+  <si>
+    <t>命令行配置</t>
+  </si>
+  <si>
+    <t>无web页提供</t>
+  </si>
+  <si>
+    <t>需要修改源码</t>
+  </si>
+  <si>
+    <t>inception
+（审核工具）</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>Oracle Instant Client</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>执行</t>
+  </si>
+  <si>
+    <t>PgSql</t>
+  </si>
+  <si>
+    <t>sqle</t>
+  </si>
+  <si>
+    <r>
+      <t>专业版本-是（有源码）
+社区版本-是</t>
     </r>
     <r>
       <rPr>
@@ -123,7 +182,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>语法解析器</t>
+      <t>（无源码，只有安装包）
+商业版本-否</t>
+    </r>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mysql（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>社区版</t>
     </r>
     <r>
       <rPr>
@@ -137,100 +223,7 @@
     </r>
   </si>
   <si>
-    <t>Mysql、
-MariaDB、
-TiDB等</t>
-  </si>
-  <si>
-    <t>命令行配置</t>
-  </si>
-  <si>
-    <t>无web页提供</t>
-  </si>
-  <si>
-    <t>需要修改源码</t>
-  </si>
-  <si>
-    <t>inception
-（审核工具）</t>
-  </si>
-  <si>
-    <t>Oracle</t>
-  </si>
-  <si>
-    <t>Oracle Instant Client</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>执行</t>
-  </si>
-  <si>
-    <t>PgSql</t>
-  </si>
-  <si>
-    <t>sqle</t>
-  </si>
-  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>专业版本-是（有源码）
-社区版本-是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（源码不确定）
-商业版本-否</t>
-    </r>
-  </si>
-  <si>
-    <t>GO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">支持
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（支持自定义审批规则，但在线试用那个社区版没有）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">sqle-tidb-plugin
 sqle-td-mysql-plugin
 sqle-pg-plugin
@@ -264,6 +257,43 @@
   <si>
     <t>MySQL</t>
   </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>数据源管理</t>
+  </si>
+  <si>
+    <t>用户管理（用户）
+&gt;用户组
+&gt;权限（审核权限）</t>
+  </si>
+  <si>
+    <t>SQL实时采集（SQL后台解析、SQL解析器）</t>
+  </si>
+  <si>
+    <t>SQL审核规则管理、自定义规则（自定义规则）</t>
+  </si>
+  <si>
+    <t>SQL自动审核
+SQL人工审核（上线、审批）</t>
+  </si>
+  <si>
+    <t>SQL执行、执行报告管理</t>
+  </si>
+  <si>
+    <t>仪表盘-报表（状态）</t>
+  </si>
+  <si>
+    <t>tdsql、dm、
+oracle、mysql</t>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>6号概要、13号详细</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +305,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +314,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -434,8 +480,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,7 +498,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,58 +879,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -876,163 +936,184 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1345,10 +1426,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:R23"/>
+  <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1356,492 +1437,608 @@
     <col min="2" max="2" width="13.283185840708" customWidth="1"/>
     <col min="3" max="3" width="34.5132743362832" customWidth="1"/>
     <col min="4" max="4" width="13.283185840708" customWidth="1"/>
-    <col min="5" max="5" width="31.7699115044248" customWidth="1"/>
-    <col min="6" max="6" width="13.283185840708" customWidth="1"/>
+    <col min="5" max="5" width="27.1592920353982" customWidth="1"/>
+    <col min="6" max="6" width="17.5486725663717" customWidth="1"/>
     <col min="7" max="8" width="12.8849557522124" customWidth="1"/>
-    <col min="9" max="9" width="13.4336283185841" customWidth="1"/>
+    <col min="9" max="9" width="22.0884955752212" customWidth="1"/>
     <col min="10" max="10" width="12.8849557522124" customWidth="1"/>
-    <col min="11" max="11" width="25.4159292035398" customWidth="1"/>
-    <col min="12" max="12" width="13.8141592920354" customWidth="1"/>
-    <col min="13" max="14" width="9.38938053097345" customWidth="1"/>
-    <col min="15" max="15" width="11.8849557522124" customWidth="1"/>
+    <col min="11" max="11" width="23.5398230088496" customWidth="1"/>
+    <col min="12" max="12" width="17.2566371681416" customWidth="1"/>
+    <col min="13" max="13" width="15.5663716814159" customWidth="1"/>
+    <col min="14" max="14" width="9.38938053097345" customWidth="1"/>
+    <col min="15" max="15" width="13.1592920353982" customWidth="1"/>
     <col min="16" max="16" width="11.6194690265487" customWidth="1"/>
     <col min="17" max="17" width="19.8407079646018" customWidth="1"/>
-    <col min="18" max="18" width="17.7964601769912" customWidth="1"/>
+    <col min="18" max="18" width="23.6991150442478" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="20.25" spans="2:18">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="2:18">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:18">
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="26" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="26"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" ht="40.5" spans="2:18">
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="9" t="s">
+      <c r="K5" s="6"/>
+      <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="4:11">
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="9" ht="29" customHeight="1" spans="2:18">
-      <c r="B9" s="4" t="s">
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" ht="29" customHeight="1" spans="2:18">
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="13" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:18">
-      <c r="B10" s="6"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3" t="s">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="9"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" ht="135" customHeight="1" spans="2:18">
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="6"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="3" t="s">
+      <c r="B11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="22"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="24"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21">
+        <v>171</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="21"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" ht="135" customHeight="1" spans="2:18">
-      <c r="B12" s="7"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="3" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+    </row>
+    <row r="18" ht="78" customHeight="1" spans="2:18">
+      <c r="B18" s="21"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="20"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="20"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="22"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="2">
-        <v>171</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="3"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="3"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" ht="78" customHeight="1" spans="2:18">
-      <c r="B23" s="3"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C18"/>
     <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="D15:D18"/>
     <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E15:E18"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="H15:H18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="K15:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B8:D17"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="21.1946902654867" customWidth="1"/>
+    <col min="3" max="3" width="44.8318584070796" customWidth="1"/>
+    <col min="4" max="4" width="16.8053097345133" customWidth="1"/>
+    <col min="5" max="5" width="15.8761061946903" customWidth="1"/>
+    <col min="6" max="6" width="29.212389380531" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" ht="40.5" spans="2:4">
+      <c r="B10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" ht="27" spans="2:4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="2:4">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" ht="27" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:B15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="技术支持（友商参考）" sheetId="1" r:id="rId1"/>
     <sheet name="需求" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,6 +106,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>TiDB
 （</t>
     </r>
@@ -171,6 +178,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>专业版本-是（有源码）
 社区版本-是</t>
     </r>
@@ -224,6 +238,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">sqle-tidb-plugin
 sqle-td-mysql-plugin
 sqle-pg-plugin
@@ -1428,7 +1449,7 @@
   <sheetPr/>
   <dimension ref="B2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
@@ -1928,117 +1949,90 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B8:D17"/>
+  <dimension ref="B8:C17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="21.1946902654867" customWidth="1"/>
     <col min="3" max="3" width="44.8318584070796" customWidth="1"/>
-    <col min="4" max="4" width="16.8053097345133" customWidth="1"/>
-    <col min="5" max="5" width="15.8761061946903" customWidth="1"/>
-    <col min="6" max="6" width="29.212389380531" customWidth="1"/>
+    <col min="4" max="4" width="15.8761061946903" customWidth="1"/>
+    <col min="5" max="5" width="29.212389380531" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4">
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" ht="40.5" spans="2:4">
+    </row>
+    <row r="10" ht="40.5" spans="2:3">
       <c r="B10" s="2"/>
       <c r="C10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4">
+    </row>
+    <row r="11" spans="2:3">
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4">
+    </row>
+    <row r="12" spans="2:3">
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" ht="27" spans="2:4">
+    </row>
+    <row r="13" ht="27" spans="2:3">
       <c r="B13" s="2"/>
       <c r="C13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4">
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" ht="13" customHeight="1" spans="2:4">
+    </row>
+    <row r="15" ht="13" customHeight="1" spans="2:3">
       <c r="B15" s="2"/>
       <c r="C15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" ht="27" spans="2:4">
+    </row>
+    <row r="16" ht="27" spans="2:3">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:4">
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="1"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="技术支持（友商参考）" sheetId="1" r:id="rId1"/>
-    <sheet name="需求" sheetId="2" r:id="rId2"/>
+    <sheet name="1.友商参考" sheetId="1" r:id="rId1"/>
+    <sheet name="2.需求" sheetId="2" r:id="rId2"/>
+    <sheet name="3.概要设计" sheetId="3" r:id="rId3"/>
+    <sheet name="4.详细设计" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>平台</t>
   </si>
@@ -306,14 +308,190 @@
     <t>仪表盘-报表（状态）</t>
   </si>
   <si>
-    <t>tdsql、dm、
-oracle、mysql</t>
+    <t>tdsql、dm、oracle、mysql</t>
   </si>
   <si>
     <t>计划</t>
   </si>
   <si>
     <t>6号概要、13号详细</t>
+  </si>
+  <si>
+    <t>需求</t>
+  </si>
+  <si>
+    <t>目标数据库类型</t>
+  </si>
+  <si>
+    <t>核心功能：</t>
+  </si>
+  <si>
+    <t>人工审核</t>
+  </si>
+  <si>
+    <t>审核类型</t>
+  </si>
+  <si>
+    <t>查询 (SELECT)、DDL、DML</t>
+  </si>
+  <si>
+    <t>工作流程</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上线工单</t>
+    </r>
+  </si>
+  <si>
+    <t>接收新SQL，检测是，并生成工单</t>
+  </si>
+  <si>
+    <t>审批工单</t>
+  </si>
+  <si>
+    <t>工单进入审批流程，可以通过多人审批</t>
+  </si>
+  <si>
+    <t>审核通过后，执行SQL</t>
+  </si>
+  <si>
+    <t>执行结果</t>
+  </si>
+  <si>
+    <t>捕获SQL执行结果并反馈到审核系统</t>
+  </si>
+  <si>
+    <t>结果报表</t>
+  </si>
+  <si>
+    <t>审核结果的汇总</t>
+  </si>
+  <si>
+    <t>自动审核</t>
+  </si>
+  <si>
+    <t>定时抓取当前运行的SQL或历史SQL，然后依据系统中配置的规则进行自动化审核</t>
+  </si>
+  <si>
+    <t>对执行结果生成报告，包含问题和建议</t>
+  </si>
+  <si>
+    <t>审核规则管理</t>
+  </si>
+  <si>
+    <t>默认规则</t>
+  </si>
+  <si>
+    <t>系统内置一套常用的SQL审核规则。</t>
+  </si>
+  <si>
+    <t>自定义规则</t>
+  </si>
+  <si>
+    <t>允许用户创建自己的审核规则。</t>
+  </si>
+  <si>
+    <t>规则模板</t>
+  </si>
+  <si>
+    <t>具体的某些规则组合到一起形成一组规则。</t>
+  </si>
+  <si>
+    <t>基础功能</t>
+  </si>
+  <si>
+    <t>数据库连接信息</t>
+  </si>
+  <si>
+    <t>ip、端口、账号、密码等</t>
+  </si>
+  <si>
+    <t>连接测试</t>
+  </si>
+  <si>
+    <t>测试到目标数据库的连通性</t>
+  </si>
+  <si>
+    <t>权限管理</t>
+  </si>
+  <si>
+    <t>审核权限</t>
+  </si>
+  <si>
+    <t>控制谁能进行SQL审核。</t>
+  </si>
+  <si>
+    <t>执行权限</t>
+  </si>
+  <si>
+    <t>控制谁能执行SQL。</t>
+  </si>
+  <si>
+    <t>仪表盘</t>
+  </si>
+  <si>
+    <t>系统概览</t>
+  </si>
+  <si>
+    <t>显示当前SQL审核状态、自动审核任务的执行情况、历史执行记录、报警信息等</t>
+  </si>
+  <si>
+    <t>报告生成与展示</t>
+  </si>
+  <si>
+    <t>生成SQL审核报告，并支持多维度查看和搜索。</t>
+  </si>
+  <si>
+    <t>基础设施</t>
+  </si>
+  <si>
+    <t>开发语言</t>
+  </si>
+  <si>
+    <t>后端</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>前端</t>
+  </si>
+  <si>
+    <t>架构</t>
+  </si>
+  <si>
+    <t>依托公司已有的微服务架构，在上面开发新的模块。</t>
+  </si>
+  <si>
+    <t>审核平台本身的数据库使用：mysql</t>
+  </si>
+  <si>
+    <t>技术</t>
+  </si>
+  <si>
+    <t>SQL解析器</t>
+  </si>
+  <si>
+    <t>解析“SQL语句”</t>
+  </si>
+  <si>
+    <t>Spring Drools</t>
+  </si>
+  <si>
+    <t>规则引擎</t>
+  </si>
+  <si>
+    <t>判断 "SQL语句的合规性"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apache Calcite </t>
   </si>
 </sst>
 </file>
@@ -510,7 +688,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +697,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -531,12 +727,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,7 +912,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -734,6 +924,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -906,7 +1133,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -918,222 +1145,258 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1447,10 +1710,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:R18"/>
+  <dimension ref="B4:R20"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1473,292 +1736,248 @@
     <col min="18" max="18" width="23.6991150442478" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="20.25" spans="2:18">
-      <c r="B2" s="5" t="s">
+    <row r="4" ht="20.25" spans="2:18">
+      <c r="B4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R4" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="2:18">
-      <c r="B3" s="6" t="s">
+    <row r="5" ht="40.5" spans="2:18">
+      <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R5" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="2:18">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="28" t="s">
+    <row r="6" ht="27" spans="2:18">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="28"/>
-    </row>
-    <row r="5" ht="40.5" spans="2:18">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="11" t="s">
+      <c r="L6" s="26"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="40"/>
+    </row>
+    <row r="7" ht="40.5" spans="2:18">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G7" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="11" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="11" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="2:18">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" ht="29" customHeight="1" spans="2:18">
-      <c r="B7" s="7" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" ht="29" customHeight="1" spans="2:18">
+      <c r="B9" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="13" t="s">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18">
-      <c r="B8" s="9"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6" t="s">
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="2:18">
-      <c r="B9" s="9"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6" t="s">
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" ht="135" customHeight="1" spans="2:18">
-      <c r="B10" s="10"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -1767,17 +1986,19 @@
       <c r="Q11" s="20"/>
       <c r="R11" s="20"/>
     </row>
-    <row r="12" spans="2:18">
-      <c r="B12" s="22"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
+    <row r="12" ht="135" customHeight="1" spans="2:18">
+      <c r="B12" s="24"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
+      <c r="H12" s="20"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="42"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
@@ -1787,158 +2008,200 @@
       <c r="R12" s="20"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="22"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
+      <c r="B13" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="24"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="20" t="s">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21">
+      <c r="G17" s="5"/>
+      <c r="H17" s="4">
         <v>171</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-    </row>
-    <row r="16" spans="2:18">
-      <c r="B16" s="21"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="20" t="s">
+      <c r="I17" s="43"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="4"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-    </row>
-    <row r="17" spans="2:18">
-      <c r="B17" s="21"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="20" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="4"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-    </row>
-    <row r="18" ht="78" customHeight="1" spans="2:18">
-      <c r="B18" s="21"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="20" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+    </row>
+    <row r="20" ht="78" customHeight="1" spans="2:18">
+      <c r="B20" s="4"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="H15:H18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="H17:H20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="K17:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1951,79 +2214,79 @@
   <sheetPr/>
   <dimension ref="B8:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="21.1946902654867" customWidth="1"/>
-    <col min="3" max="3" width="44.8318584070796" customWidth="1"/>
+    <col min="2" max="2" width="14.1504424778761" customWidth="1"/>
+    <col min="3" max="3" width="47.0796460176991" customWidth="1"/>
     <col min="4" max="4" width="15.8761061946903" customWidth="1"/>
     <col min="5" max="5" width="29.212389380531" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="2:3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="27" spans="2:3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="2:3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" ht="27" spans="2:3">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2035,4 +2298,420 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A10:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.24778761061947" customWidth="1"/>
+    <col min="2" max="2" width="16.6902654867257" customWidth="1"/>
+    <col min="3" max="3" width="26.3982300884956" customWidth="1"/>
+    <col min="4" max="4" width="18.646017699115" customWidth="1"/>
+    <col min="5" max="5" width="37.6814159292035" customWidth="1"/>
+    <col min="6" max="6" width="44.2654867256637" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="3"/>
+      <c r="B37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A13:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D21:D22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="8" max="8" width="14.5398230088496" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1.友商参考" sheetId="1" r:id="rId1"/>
     <sheet name="2.需求" sheetId="2" r:id="rId2"/>
     <sheet name="3.概要设计" sheetId="3" r:id="rId3"/>
     <sheet name="4.详细设计" sheetId="4" r:id="rId4"/>
+    <sheet name="5.规则模板" sheetId="5" r:id="rId5"/>
+    <sheet name="6.审核实现方案" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="420">
   <si>
     <t>平台</t>
   </si>
@@ -377,7 +379,14 @@
     <t>自动审核</t>
   </si>
   <si>
-    <t>定时抓取当前运行的SQL或历史SQL，然后依据系统中配置的规则进行自动化审核</t>
+    <t>示例：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>定时抓取当前运行的SQL或历史SQL，然后依据系统中配置的规则进行自动化审核。
+（ MySQL 的 Binlog，Oracle 的 Redo Log 等）</t>
   </si>
   <si>
     <t>对执行结果生成报告，包含问题和建议</t>
@@ -419,19 +428,63 @@
     <t>测试到目标数据库的连通性</t>
   </si>
   <si>
-    <t>权限管理</t>
-  </si>
-  <si>
-    <t>审核权限</t>
-  </si>
-  <si>
-    <t>控制谁能进行SQL审核。</t>
-  </si>
-  <si>
-    <t>执行权限</t>
-  </si>
-  <si>
-    <t>控制谁能执行SQL。</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权限管理
+（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修改为审批流配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用户与角色（使用源系统的）  
+审核权限 控制谁能进行SQL审核。 
+执行权限 控制谁能执行SQL。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+这是审批流程配置，如指定 DBA 组审批，实际上已经明确了哪些用户可以审核工单，相当于实现了审核权限的分配。不需要单独再做一套权限控制体系，只需确保审批流配置和用户组的关联正确即可。
+提交工单的人默认就是执行工单的人。</t>
+    </r>
   </si>
   <si>
     <t>仪表盘</t>
@@ -449,33 +502,12 @@
     <t>生成SQL审核报告，并支持多维度查看和搜索。</t>
   </si>
   <si>
-    <t>基础设施</t>
-  </si>
-  <si>
-    <t>开发语言</t>
-  </si>
-  <si>
-    <t>后端</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>前端</t>
-  </si>
-  <si>
-    <t>架构</t>
-  </si>
-  <si>
-    <t>依托公司已有的微服务架构，在上面开发新的模块。</t>
+    <t>技术</t>
   </si>
   <si>
     <t>审核平台本身的数据库使用：mysql</t>
   </si>
   <si>
-    <t>技术</t>
-  </si>
-  <si>
     <t>SQL解析器</t>
   </si>
   <si>
@@ -492,6 +524,1588 @@
   </si>
   <si>
     <t xml:space="preserve">Apache Calcite </t>
+  </si>
+  <si>
+    <t>通知功能</t>
+  </si>
+  <si>
+    <t>红点提示</t>
+  </si>
+  <si>
+    <t>当有未处理的工单时，通知中心显示红点，提醒用户有新任务。</t>
+  </si>
+  <si>
+    <t>通知列表</t>
+  </si>
+  <si>
+    <t>点击红点后显示一个下拉列表，列出所有待处理的工单通知（包括工单名称、提交时间等）。</t>
+  </si>
+  <si>
+    <t>查看详情：</t>
+  </si>
+  <si>
+    <t>点击某条通知，可以跳转到工单详情页，进行审核或查看。</t>
+  </si>
+  <si>
+    <t>审批参数配置</t>
+  </si>
+  <si>
+    <t>列表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>示例：max_affected_rows、index_prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+审核的唯一索引名前缀: uniq_   
+审核的普通索引名前缀: idx_   
+查询语句的条数限制:  1000   
+UPDATE和DELETE语句影响行数: 10000
+最大绑定变量数量: 100
+标识符最大长度为：64字节
+Varchar最大长度：1024
+绑定变量阈值：100
+char, varchar类型字段字符长度总 阈值 2000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>示例：UPDATE 和 DELETE 语句影响的最大行数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>示例：10000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参数类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>示例：整数（int）、字符串（string）、布尔值（boolean）。</t>
+  </si>
+  <si>
+    <t>添加</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规则（名称）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>禁止使用 SELECT *</t>
+  </si>
+  <si>
+    <t>说明*</t>
+  </si>
+  <si>
+    <t>查询语句中禁止使用 SELECT *，以避免因表结构变更引发的查询行为不一致问题，同时减少无用字段的查询开销，提高性能。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>适用数据源类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>TDSQL、DM、Oracle、MySQL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规则分类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认告警等级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>告警</t>
+  </si>
+  <si>
+    <t>普通、提示、告警、错误</t>
+  </si>
+  <si>
+    <t>DDL规范</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（不同数据库分类有点不同，间统一归类）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DDL规范
+索引规范
+命令规范
+索引优化
+全局配置
+索引失效
+使用建议
+DML规范</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>规则脚本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>(?i)^insert\s.*values.*'liheng'</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>编辑、删除、查看详情</t>
+  </si>
+  <si>
+    <t>以卡片展示名字、描述等级、和操作项</t>
+  </si>
+  <si>
+    <t>条件搜索</t>
+  </si>
+  <si>
+    <t>规则类型、搜索名称</t>
+  </si>
+  <si>
+    <t>删除自定义规则</t>
+  </si>
+  <si>
+    <t>更新</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>查看详细</t>
+  </si>
+  <si>
+    <t>规则模板
+（包括默认的）模板的维度）</t>
+  </si>
+  <si>
+    <t>模板名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>可用数据库类型</t>
+  </si>
+  <si>
+    <t>编辑、删除</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>模板名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>my_mysql_suit</t>
+  </si>
+  <si>
+    <t>模版描述</t>
+  </si>
+  <si>
+    <t>我的mysql审核专用模析</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据库类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>已选择的“规则列表”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>告警等级、描述、等级，条件筛选</t>
+  </si>
+  <si>
+    <t>默认会选择对应数据库的“所有规则”</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未选择的“规则列表”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>选中或移除某个规则</t>
+  </si>
+  <si>
+    <t>编辑</t>
+  </si>
+  <si>
+    <t>修改“默认规则模板”条目</t>
+  </si>
+  <si>
+    <t>删除某一个“默认规则模板”</t>
+  </si>
+  <si>
+    <t>该“默认规则模板”内部的规则列表</t>
+  </si>
+  <si>
+    <t>查看具体规则详细</t>
+  </si>
+  <si>
+    <t>规则分类</t>
+  </si>
+  <si>
+    <t>克隆模板</t>
+  </si>
+  <si>
+    <t>快速创建新的“规则模板”</t>
+  </si>
+  <si>
+    <t>数据源名</t>
+  </si>
+  <si>
+    <t>mysql_test_source</t>
+  </si>
+  <si>
+    <t>地址</t>
+  </si>
+  <si>
+    <t>192.168.100.231:3306</t>
+  </si>
+  <si>
+    <t>mysql测试环境</t>
+  </si>
+  <si>
+    <t>数据源类型</t>
+  </si>
+  <si>
+    <t>编辑、删除、测试连通性</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>数据库类型</t>
+  </si>
+  <si>
+    <t>详情</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据源名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>数据源描述</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据源类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据源端口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>3306</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>23456</t>
+  </si>
+  <si>
+    <t>运维时间</t>
+  </si>
+  <si>
+    <t>01:00~05:00</t>
+  </si>
+  <si>
+    <t>开始时间~结束时间 设置运维时间后， 仅能在此运维时间段内执行工单</t>
+  </si>
+  <si>
+    <t>是否开启SQL审核业务</t>
+  </si>
+  <si>
+    <t>必须开启，不开启无法使用该数据源</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>审核规则模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>default_MySQL</t>
+  </si>
+  <si>
+    <t>“是否开启SQL审核业务”为“是”必填</t>
+  </si>
+  <si>
+    <t>添加数据源</t>
+  </si>
+  <si>
+    <t>除了字段外，有“测试数据源连通性”的操作</t>
+  </si>
+  <si>
+    <t>除“数据源名”之外的字段可以修改</t>
+  </si>
+  <si>
+    <t>删除数据源</t>
+  </si>
+  <si>
+    <t>default_TDSQL For InnoDB</t>
+  </si>
+  <si>
+    <t>使用建议</t>
+  </si>
+  <si>
+    <t>绑定的变量个数不建议超过阈值</t>
+  </si>
+  <si>
+    <t>因为过度使用绑定变量会增加查询的复杂度，从而降低查询性能。过度使用绑定变量还会增加维护成本。默认阈值:100</t>
+  </si>
+  <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>禁止使用event</t>
+  </si>
+  <si>
+    <t>使用event会增加数据库的维护难度和依赖性，并且也会造成安全问题。</t>
+  </si>
+  <si>
+    <t>禁止使用全文索引</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全文索引的使用会增加存储开销，并对写操作性能产生一定影响。
+</t>
+  </si>
+  <si>
+    <t>禁止使用空间字段和空间索引</t>
+  </si>
+  <si>
+    <t>使用空间字段和空间索引会增加存储需求，对数据库性能造成一定影响</t>
+  </si>
+  <si>
+    <t>禁止char, varchar类型字段字符长度总和超过阈值</t>
+  </si>
+  <si>
+    <t>使用过长或者过多的varchar，char字段可能会增加业务逻辑的复杂性；如果字段平均长度过大时，会占用更多的存储空间。</t>
+  </si>
+  <si>
+    <t>禁止使用自定义函数</t>
+  </si>
+  <si>
+    <t>自定义函数，维护较差，且依赖性高会导致SQL无法跨库使用</t>
+  </si>
+  <si>
+    <t>禁止使用存储过程</t>
+  </si>
+  <si>
+    <t>存储过程在一定程度上会使程序难以调试和拓展，各种数据库的存储过程语法相差很大，给将来的数据库移植带来很大的困难，且会极大的增加出现BUG的概率</t>
+  </si>
+  <si>
+    <t>禁止使用触发器</t>
+  </si>
+  <si>
+    <t>触发器难以开发和维护，不能高效移植，且在复杂的逻辑以及高并发下，容易出现死锁影响业务</t>
+  </si>
+  <si>
+    <t>禁止使用视图</t>
+  </si>
+  <si>
+    <t>视图的查询性能较差，同时基表结构变更，需要对视图进行维护，如果视图可读性差且包含复杂的逻辑，都会增加维护的成本</t>
+  </si>
+  <si>
+    <t>新建表建议加入 IF NOT EXISTS，保证重复执行不报错</t>
+  </si>
+  <si>
+    <t>新建表如果表已经存在，不添加IF NOT EXISTS CREATE执行SQL会报错，建议开启此规则，避免SQL实际执行报错</t>
+  </si>
+  <si>
+    <t>禁止除索引外的DROP操作</t>
+  </si>
+  <si>
+    <t>DROP是DDL，数据变更不会写入日志，无法进行回滚；建议开启此规则，避免误删除操作</t>
+  </si>
+  <si>
+    <t>DML规范</t>
+  </si>
+  <si>
+    <t>禁止使用没有WHERE条件或者WHERE条件恒为TRUE的SQL</t>
+  </si>
+  <si>
+    <t>SQL缺少WHERE条件在执行时会进行全表扫描产生额外开销，建议在大数据量高并发环境下开启，避免影响数据库查询性能</t>
+  </si>
+  <si>
+    <t>分片表SELECT、DELETE、UPDATE操作,条件字段必须包含分片键</t>
+  </si>
+  <si>
+    <t>在分片表的SELECT、DELETE和UPDATE操作中，条件字段必须包含分片键的原因是为了确保操作只在特定的分片上进行，以保持数据的一致性和正确性</t>
+  </si>
+  <si>
+    <t>分片表INSERT操作,插入字段必须包含分片键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在分片表的INSERT操作中，插入字段必须包含分片键的原因是为了确保操作只在特定的分片上进行，以保持数据的一致性和正确性
+</t>
+  </si>
+  <si>
+    <t>分片表做关联，关联字段必须是shardkey，非shardkey关联字段不允许做关联查询</t>
+  </si>
+  <si>
+    <t>在分片表做关联查询时，关联字段必须是shardkey，非shardkey关联字段不允许做关联查询</t>
+  </si>
+  <si>
+    <t>禁止在查询分片表时引用和操作变量</t>
+  </si>
+  <si>
+    <t>在分片表查询SQL中对于变量的引用和操作可能导致查询结果不准确,因为分片表的数据分布在多个节点上,而变量的值只在当前节点上有效</t>
+  </si>
+  <si>
+    <t>禁止对分片表使用DELETE/UPDATE...LIMIT语句</t>
+  </si>
+  <si>
+    <t>分片表不支持DELETE/UPDATE...LIMIT语句</t>
+  </si>
+  <si>
+    <t>禁止对分片键进行UPDATE操作</t>
+  </si>
+  <si>
+    <t>分片键不支持UPDATE操作</t>
+  </si>
+  <si>
+    <t>分片表SELECT、INSERT、DELETE、UPDATE操作, 禁止对分片键使用函数</t>
+  </si>
+  <si>
+    <t>在分片表的SELECT、INSERT、DELETE和UPDATE操作中，禁止对分片键使用函数的原因是为了确保操作只在特定的分片上进行，以保持数据的一致性和正确性</t>
+  </si>
+  <si>
+    <t>WHERE子句中禁止将NULL值与其他字段或值进行比较运算</t>
+  </si>
+  <si>
+    <t>NULL在SQL中属于特殊值，无法与普通值进行比较。例如：column = NULL恒为false，即使column存在null值也不会查询出来，所以column = NULL应该写为column is NULL</t>
+  </si>
+  <si>
+    <t>UPDATE/DELETE操作影响行数不建议超过阈值</t>
+  </si>
+  <si>
+    <t>如果 DML 操作影响行数过多，会导致查询性能下降，因为需要扫描更多的数据。</t>
+  </si>
+  <si>
+    <t>不建议对表进行索引跳跃扫描</t>
+  </si>
+  <si>
+    <t>索引扫描是跳跃扫描，未遵循最左匹配原则，可能降低索引的使用效率，影响查询性能</t>
+  </si>
+  <si>
+    <t>禁止使用全模糊搜索或左模糊搜索</t>
+  </si>
+  <si>
+    <t>使用全模糊搜索或左模糊搜索将导致查询无法使用索引，导致全表扫描</t>
+  </si>
+  <si>
+    <t>建议连库查询时，确保SQL执行计划中使用的索引区分度大于阈值</t>
+  </si>
+  <si>
+    <t>确保SQL执行计划中使用的高索引区分度，有助于提升查询性能并优化查询效率。</t>
+  </si>
+  <si>
+    <t>不建议LIMIT的偏移OFFSET大于阈值</t>
+  </si>
+  <si>
+    <t>因为OFFSET指定了结果集的起始位置，如果起始位置过大，那么 MySQL 需要处理更多的数据才能返回结果集，这可能会导致查询性能下降。</t>
+  </si>
+  <si>
+    <t>不建议对同一张表连接多次</t>
+  </si>
+  <si>
+    <t>如果对单表查询多次，会导致查询性能下降。</t>
+  </si>
+  <si>
+    <t>扫描行数超过阈值，筛选条件必须带上主键或者索引</t>
+  </si>
+  <si>
+    <t>筛选条件必须带上主键或索引可降低数据库查询的时间复杂度，提高查询效率。</t>
+  </si>
+  <si>
+    <t>查询数据量超过阈值，筛选条件必须带上主键或者索引</t>
+  </si>
+  <si>
+    <t>筛选条件必须带上主键或索引可提高查询性能和减少全表扫描的成本。</t>
+  </si>
+  <si>
+    <t>引号中的字符串开头或结尾不建议包含空格</t>
+  </si>
+  <si>
+    <t>字符串前后存在空格将可能导致查询判断逻辑出错，如在MySQL 5.5中'a'和'a '在查询中被认为是相同的值</t>
+  </si>
+  <si>
+    <t>建议UPDATE/DELETE操作使用WHERE条件</t>
+  </si>
+  <si>
+    <t>因为这些语句的目的是修改数据库中的数据，需要使用 WHERE 条件来过滤需要更新或删除的记录，以确保数据的正确性。另外，使用 WHERE 条件还可以提高查询性能。</t>
+  </si>
+  <si>
+    <t>DELETE/UPDATE 语句不能有LIMIT条件</t>
+  </si>
+  <si>
+    <t>DELETE/UPDATE 语句使用LIMIT条件将随机选取数据进行删除或者更新，业务无法预期</t>
+  </si>
+  <si>
+    <t>DELETE/UPDATE 语句不能有ORDER BY</t>
+  </si>
+  <si>
+    <t>DELETE/UPDATE 存在ORDER BY会使用排序，带来无谓的开销</t>
+  </si>
+  <si>
+    <t>避免使用 COUNT(COL)</t>
+  </si>
+  <si>
+    <t>建议使用COUNT(*)，因为使用 COUNT(COL) 需要对表进行全表扫描，这可能会导致性能下降。</t>
+  </si>
+  <si>
+    <t>避免使用 IN (NULL) 或者 NOT IN (NULL)</t>
+  </si>
+  <si>
+    <t>查询条件永远非真，这将导致查询无匹配到的结果</t>
+  </si>
+  <si>
+    <t>不建议UPDATE主键</t>
+  </si>
+  <si>
+    <t>主键索引数据列的顺序就是表记录的物理存储顺序，频繁更新主键将导致整个表记录的顺序的调整，会耗费相当大的资源</t>
+  </si>
+  <si>
+    <t>BLOB 和 TEXT 类型的字段默认值只能为NULL</t>
+  </si>
+  <si>
+    <t>在SQL_MODE严格模式下BLOB 和 TEXT 类型无法设置默认值，如插入数据不指定值，字段会被设置为NULL</t>
+  </si>
+  <si>
+    <t>BLOB 和 TEXT 类型的字段不建议设置为 NOT NULL</t>
+  </si>
+  <si>
+    <t>BLOB 和 TEXT 类型的字段无法指定默认值，如插入数据不指定字段默认为NULL，如果添加了 NOT NULL 限制，写入数据时又未对该字段指定值会导致写入失败</t>
+  </si>
+  <si>
+    <t>CHAR长度大于20时，必须使用VARCHAR类型</t>
+  </si>
+  <si>
+    <t>VARCHAR是变长字段，存储空间小，可节省存储空间，同时相对较小的字段检索效率显然也要高些</t>
+  </si>
+  <si>
+    <t>TIMESTAMP 类型的列必须添加默认值</t>
+  </si>
+  <si>
+    <t>TIMESTAMP添加默认值，可避免出现全为0的日期格式与业务预期不符</t>
+  </si>
+  <si>
+    <t>除了自增列及大字段列之外，每个列都必须添加默认值</t>
+  </si>
+  <si>
+    <t>列添加默认值，可避免列为NULL值时对查询的影响</t>
+  </si>
+  <si>
+    <t>DDL语句中不建议使用中文全角引号</t>
+  </si>
+  <si>
+    <t>建议开启此规则，可避免MySQL会将中文全角引号识别为命名的一部分，执行结果与业务预期不符</t>
+  </si>
+  <si>
+    <t>定义VARCHAR 长度时不建议大于阈值</t>
+  </si>
+  <si>
+    <t>MySQL建立索引时没有限制索引的大小，索引长度会默认采用的该字段的长度，VARCHAR 定义长度越长建立的索引存储大小越大；具体规则阈值可以根据业务需求调整，默认值：1024</t>
+  </si>
+  <si>
+    <t>ALTER表字段禁止使用FIRST,AFTER</t>
+  </si>
+  <si>
+    <t>FIRST,AFTER 的ALTER操作通过COPY TABLE的方式完成，对业务影响较大</t>
+  </si>
+  <si>
+    <t>禁止进行删除列的操作</t>
+  </si>
+  <si>
+    <t>业务逻辑与删除列依赖未完全消除，列被删除后可能导致程序异常（无法正常读写）的情况；开启该规则，SQLE将提醒删除列为高危操作</t>
+  </si>
+  <si>
+    <t>禁止进行删除外键的操作</t>
+  </si>
+  <si>
+    <t>删除已有约束会影响已有业务逻辑；开启该规则，SQLE将提醒删除外键为高危操作</t>
+  </si>
+  <si>
+    <t>禁止进行删除主键的操作</t>
+  </si>
+  <si>
+    <t>删除已有约束会影响已有业务逻辑；开启该规则，SQLE将提醒删除主键为高危操作</t>
+  </si>
+  <si>
+    <t>禁止使用RENAME或CHANGE对表名字段名进行修改</t>
+  </si>
+  <si>
+    <t>RENAME/CHANGE 表名/列名会对线上业务不停机发布造成影响，如需这种操作应当DBA手工干预</t>
+  </si>
+  <si>
+    <t>索引规范</t>
+  </si>
+  <si>
+    <t>禁止将BLOB类型的列加入索引</t>
+  </si>
+  <si>
+    <t>BLOB类型属于大字段类型，作为索引会占用很大的存储空间</t>
+  </si>
+  <si>
+    <t>表必须有主键</t>
+  </si>
+  <si>
+    <t>主键使数据达到全局唯一，可提高数据检索效率</t>
+  </si>
+  <si>
+    <t>主键建议使用自增</t>
+  </si>
+  <si>
+    <t>自增主键，数字型速度快，而且是增量增长，占用空间小，更快速的做数据插入操作，避免增加维护索引的开销</t>
+  </si>
+  <si>
+    <t>主键建议使用 BIGINT 无符号类型，即 BIGINT UNSIGNED</t>
+  </si>
+  <si>
+    <t>BIGINT UNSIGNED拥有更大的取值范围，建议开启此规则，避免发生溢出</t>
+  </si>
+  <si>
+    <t>禁止使用外键</t>
+  </si>
+  <si>
+    <t>外键在高并发场景下性能较差，容易造成死锁，同时不利于后期维护（拆分、迁移）</t>
+  </si>
+  <si>
+    <t>命名规范</t>
+  </si>
+  <si>
+    <t>建议普通索引使用固定前缀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过配置该规则可以规范指定业务的索引命名规则，具体命名规范可以自定义设置，默认提示值：idx_
+</t>
+  </si>
+  <si>
+    <t>表名、列名、索引名的长度不建议超过阈值</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的对象命名长度，具体长度可以自定义设置，默认最大长度：64。是MySQL规定标识符命名最大长度为64字节</t>
+  </si>
+  <si>
+    <t>数据库对象命名只能使用英文、下划线或数字，首字母必须是英文</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的数据对象命名规则</t>
+  </si>
+  <si>
+    <t>数据库对象命名禁止使用保留字</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的数据对象命名规则，避免发生冲突，以及混淆</t>
+  </si>
+  <si>
+    <t>建议UNIQUE索引名使用 IDX_UK_表名_字段名</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的UNIQUE索引命名规则</t>
+  </si>
+  <si>
+    <t>建议UNIQUE索引使用固定前缀</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的UNIQUE索引命名规则，具体命名规范可以自定义设置，默认提示值：uniq_</t>
+  </si>
+  <si>
+    <t>索引优化</t>
+  </si>
+  <si>
+    <t>不建议创建冗余索引</t>
+  </si>
+  <si>
+    <t>MySQL需要单独维护重复的索引，冗余索引增加维护成本，并且优化器在优化查询时需要逐个进行代价计算，影响查询性能</t>
+  </si>
+  <si>
+    <t>（1）解析 CREATE INDEX 或 ALTER TABLE 语句，提取索引的定义（字段、类型等）
+（2）示例检测
+CREATE INDEX index_name ON table_name (column1, column2);
+CREATE UNIQUE INDEX unique_index_name ON table_name (column1);
+（3）元数据查询：
+查询目标表当前已有的索引信息，判断新建索引是否与现有索引重复或冗余。
+在 MySQL 或 TDSQL 中，可以通过 information_schema.statistics 获取索引信息：
+sql
+（4）
+SELECT index_name, column_name, non_unique
+FROM information_schema.statistics
+WHERE table_schema = 'your_database'
+  AND table_name = 'your_table';
+（5）定义规则：
+如果新索引与现有索引完全相同或是子集，则判定为冗余索引。
+返回提示：例如“该索引与已有索引重复，请避免创建冗余索引。”</t>
+  </si>
+  <si>
+    <t>索引失效</t>
+  </si>
+  <si>
+    <t>连接表字段的字符集和排序规则必须一致</t>
+  </si>
+  <si>
+    <t>连接表字段的字符集和排序规则一致可避免数据不一致和查询错误，确保连接操作正确执行。</t>
+  </si>
+  <si>
+    <t>JOIN字段必须包含索引</t>
+  </si>
+  <si>
+    <t>JOIN字段包含索引可提高连接操作的性能和查询速度。</t>
+  </si>
+  <si>
+    <t>禁止对索引列进行数学运算和使用函数</t>
+  </si>
+  <si>
+    <t>对索引列进行数学运算和使用函数会导致索引失效，从而导致全表扫描，影响查询性能。</t>
+  </si>
+  <si>
+    <t>禁止对联合索引左侧字段进行IN 、OR等非等值查询</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对联合索引左侧字段进行IN 、OR等非等值查询会导致联合索引失效
+</t>
+  </si>
+  <si>
+    <t>使用联合索引时，必须使用联合索引的首字段</t>
+  </si>
+  <si>
+    <t>使用联合索引时，不包含首字段会导致联合索引失效</t>
+  </si>
+  <si>
+    <t>不建议使用聚合函数</t>
+  </si>
+  <si>
+    <t>不建议使用SQL聚合函数,是为了确保查询的简单性、高性能和数据一致性。</t>
+  </si>
+  <si>
+    <t>别名不建议与表或列的名字相同</t>
+  </si>
+  <si>
+    <t>表或列的别名与其真实名称相同, 这样的别名会使得查询更难去分辨</t>
+  </si>
+  <si>
+    <t>建议使用UNION ALL,替代UNION</t>
+  </si>
+  <si>
+    <t>UNION会按照字段的顺序进行排序同时去重，UNION ALL只是简单的将两个结果合并后就返回，从效率上看，UNION ALL 要比UNION快很多；如果合并的两个结果集中允许包含重复数据且不需要排序时的话，建议开启此规则，使用UNION ALL替代UNION</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>不建议ORDER BY 的条件为表达式</t>
+  </si>
+  <si>
+    <t>当ORDER BY条件为表达式或函数时会使用到临时表，如果在未指定WHERE或WHERE条件返回的结果集较大时性能会很差</t>
+  </si>
+  <si>
+    <t>不建议使用 SYSDATE() 函数</t>
+  </si>
+  <si>
+    <t>当SYSDATE()函数在基于STATEMENT模式的主从环境下可能造成数据的不一致，因为语句在主库中执行到日志传递到备库，存在时间差，到备库执行的时候就会变成不同的时间值，建议采取ROW模式的复制环境</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建议开启此规则，可避免MySQL会将中文全角引号识别为命名的一部分，执行结果与业务预期不符 </t>
+  </si>
+  <si>
+    <t>建议使用指定数据库引擎</t>
+  </si>
+  <si>
+    <t>通过配置该规则可以规范指定业务的数据库引擎，具体规则可以自定义设置。默认值是INNODB，INNODB 支持事务，支持行级锁，更好的恢复性，高并发下性能更好</t>
+  </si>
+  <si>
+    <t>default_DM</t>
+  </si>
+  <si>
+    <t>DQL规范</t>
+  </si>
+  <si>
+    <t>禁止使用 select *</t>
+  </si>
+  <si>
+    <t>当表结构变更时，使用*通配符选择所有列将导致查询行为会发生更改，与业务期望不符；同时select * 中的无用字段会带来不必要的磁盘I/O，以及网络开销，且无法覆盖索引进而回表，大幅度降低查询效率</t>
+  </si>
+  <si>
+    <t>（1）解析 SELECT 语句，提取列字段。
+（2）检查是否包含 *
+例如“禁止使用 SELECT *，请显式指定列名。”</t>
+  </si>
+  <si>
+    <t>避免使用 having 子句</t>
+  </si>
+  <si>
+    <t>HAVING 只会在检索出所有记录之后才对结果集进行过滤，这个处理需要排序、统计等操作，使用WHERE子句限制记录的数目，减少这方面的开销</t>
+  </si>
+  <si>
+    <t>（1）SQL解析器：解析 SELECT 语句，提取 HAVING 子句。检查是否存在 HAVING 子句。
+（2）规则引擎：
+定义规则：如果语句中包含 HAVING 子句，则判定规则不通过。
+（3）返回提示：例如“请避免使用 HAVING 子句，建议用 WHERE 子句优化过滤条件。”</t>
+  </si>
+  <si>
+    <t>禁止使用没有where条件的sql语句</t>
+  </si>
+  <si>
+    <t>SQL缺少where条件在执行时会进行全表扫描产生额外开销，建议在大数据量高并发环境下开启，避免影响数据库查询性能</t>
+  </si>
+  <si>
+    <t>（1）SQL解析器：
+解析所有 SELECT、DELETE 和 UPDATE 语句。
+检查是否包含 WHERE 子句。
+（2）规则引擎
+定义规则：如果解析出的 SQL 缺少 WHERE 子句，则判定规则不通过。
+（3）返回提示：例如“禁止使用没有 WHERE 条件的 SQL 语句，以避免全表扫描带来的性能开销。”</t>
+  </si>
+  <si>
+    <t>禁止where条件中出现1=1</t>
+  </si>
+  <si>
+    <t>where 1=1相当于没有where条件，SQL缺少where条件在执行时会进行全表扫描产生额外开销，建议在大数据量高并发环境下开启，避免影响数据库查询性能。</t>
+  </si>
+  <si>
+    <t>（1）解析 SQL 的 WHERE 子句。
+提取条件表达式，检查是否存在 1=1。
+（2）
+定义规则：如果 WHERE 子句包含 1=1，则判定规则不通过。
+返回提示：例如“禁止在 WHERE 条件中使用 1=1，请移除多余条件以优化查询。”</t>
+  </si>
+  <si>
+    <t>SQL语句存在全表排序操作</t>
+  </si>
+  <si>
+    <t>SQL语句存在全表排序操作，无过滤条件</t>
+  </si>
+  <si>
+    <t>（1）SQL解析器：
+解析 SQL，检查是否包含 ORDER BY 子句。
+提取过滤条件（WHERE 子句）并判断是否存在。
+（2）
+执行计划：
+获取 SQL 的执行计划，检查是否有全表扫描或全表排序（filesort 等关键字）。
+（3）
+规则引擎：
+定义规则：
+如果 SQL 包含 ORDER BY，但没有 WHERE 子句，则判定不通过。
+或执行计划显示排序是全表范围内的（无索引优化），则判定不通过。
+（4）返回提示：例如“SQL 存在全表排序操作，请添加过滤条件以优化查询。”</t>
+  </si>
+  <si>
+    <t>查询语句的条件中使用表达式</t>
+  </si>
+  <si>
+    <t>查询语句的条件中使用表达式，类似于select name from stu where age + 1 &lt; 12。</t>
+  </si>
+  <si>
+    <t>（1）解析 SELECT 语句的 WHERE 子句。
+（2）提取条件表达式中的字段和操作符，检查条件中是否存在算术运算（如 +、-、*、/）或函数调用。
+（3）定义规则：如果 WHERE 子句中的条件包含表达式（如 age + 1 或 FUNC(field)），则判定规则不通过。
+（4）返回提示：例如“查询条件中不应使用表达式，请直接使用字段比较以优化性能。”</t>
+  </si>
+  <si>
+    <t>使用标量子查询</t>
+  </si>
+  <si>
+    <t>select SQL中禁止使用标量子查询，标量子查询的SQL语句易产生性能问题</t>
+  </si>
+  <si>
+    <t>（1）SQL解析器：
+解析 SELECT 语句，检查查询中是否存在标量子查询。
+（2）标量子查询的特征：
+子查询返回单个值。
+子查询通常出现在 SELECT 的字段中、WHERE 或 HAVING 子句中。
+（3）例如，检测以下模式：
+SELECT name, (SELECT MAX(age) FROM students) AS max_age FROM teachers;
+定义规则：如果检测到标量子查询，则判定规则不通过。
+返回提示：例如“SQL 中禁止使用标量子查询，请考虑优化查询逻辑，避免性能问题。”</t>
+  </si>
+  <si>
+    <t>条件字段做函数操作</t>
+  </si>
+  <si>
+    <t>条件字段使用了函数</t>
+  </si>
+  <si>
+    <t>（1）解析 SQL 的 WHERE 子句。
+（2）提取条件字段，检查是否包含函数调用，例如 FUNC(column) 的形式。
+（3）示例检测：
+SELECT * FROM table WHERE UPPER(name) = 'JOHN';
+（4）规则引擎：
+定义规则：如果 WHERE 子句中的条件字段使用了函数（如 UPPER(column)、TRIM(column) 等），则判定规则不通过。
+（5）返回提示：例如“条件字段中禁止使用函数操作，请将函数操作移到查询外以优化性能。”</t>
+  </si>
+  <si>
+    <t>SQL语句访问的数据太多</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQL语句访问的数据太多，超过设置的阈值（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阈值1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>（1）执行计划：
+使用数据库的执行计划工具（如 EXPLAIN）。
+检查执行计划中预估的返回行数（rows 字段）。
+（2）示例（MySQL 中）：
+EXPLAIN SELECT * FROM table WHERE condition;
+返回中包含 rows 字段，表示查询会访问的数据量。
+（3）定义规则：如果执行计划中的 rows 字段值超过阈值（例如 1000），则判定规则不通过。
+（4）返回提示：例如“SQL 访问的数据量过大，请优化查询条件或限制返回行数。”</t>
+  </si>
+  <si>
+    <t>禁止除索引外的 drop 操作</t>
+  </si>
+  <si>
+    <t>DROP是DDL，无法进行回滚；建议开启此规则，避免误操作</t>
+  </si>
+  <si>
+    <t>（1）解析 SQL 语句，识别 DROP 操作。
+（2）提取 DROP 的目标对象（如表、数据库、索引等）。
+（3）示例检测：
+DROP TABLE table_name;
+DROP INDEX index_name ON table_name;
+（4）
+定义规则：
+如果检测到 DROP 操作且目标不是索引（如 DROP TABLE 或 DROP DATABASE），则判定规则不通过。
+（5）返回提示：例如“禁止执行非索引的 DROP 操作，请确认后再操作。”</t>
+  </si>
+  <si>
+    <t>禁止创建视图</t>
+  </si>
+  <si>
+    <t>视图的查询性能较差，同时基表结构变更，都需要对视图进行维护，如果视图可读性差且包含复杂的逻辑，都会增加维护的成本</t>
+  </si>
+  <si>
+    <t>（1）解析 SQL 语句，识别 CREATE VIEW 操作。
+提取目标对象，检查是否是视图。
+（2）示例检测：
+CREATE VIEW view_name AS SELECT * FROM table_name;
+（3）规则引擎：定义规则：如果检测到 CREATE VIEW 语句，则判定规则不通过。
+（4）返回提示：例如“禁止创建视图，请使用普通表或其他方式实现需求，减少维护成本。”</t>
+  </si>
+  <si>
+    <t>禁止创建触发器</t>
+  </si>
+  <si>
+    <t xml:space="preserve">触发器难以开发和维护，不能高效移植，且在复杂的逻辑以及高并发下，容易出现死锁影响业务
+</t>
+  </si>
+  <si>
+    <t>（1）解析 SQL 语句，识别 CREATE TRIGGER 操作。
+（2）提取目标对象，检查是否是触发器。
+（3）CREATE TRIGGER trigger_name BEFORE INSERT ON table_name FOR EACH ROW BEGIN ... END;
+（4）定义规则：
+如果检测到 CREATE TRIGGER 语句，则判定规则不通过。
+（5）返回提示：例如“禁止创建触发器，请避免复杂逻辑带来的维护成本和并发问题。”</t>
+  </si>
+  <si>
+    <t>（创建）表建议使用主键</t>
+  </si>
+  <si>
+    <t>主键有利于后期数据维护，且可提高SQL的执行效率</t>
+  </si>
+  <si>
+    <t>（1）解析 CREATE TABLE 语句，检查是否定义了主键（PRIMARY KEY）。
+（2）示例检测：
+CREATE TABLE table_name (
+    id INT,
+    name VARCHAR(50)
+);
+（3）检查表结构中是否包含 PRIMARY KEY 定义。
+（4）如果 CREATE TABLE 语句中未检测到主键，则判定规则不通过。
+（5）返回提示：例如“建议为表添加主键，以提高数据维护和查询效率。”</t>
+  </si>
+  <si>
+    <t>创建表时未指定表空间</t>
+  </si>
+  <si>
+    <t>创建表时不指定表空间，将放在用户默认表空间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（1）解析 CREATE TABLE 语句，检查是否指定了 TABLESPACE 子句。
+（2）
+CREATE TABLE table_name (
+    id INT,
+    name VARCHAR(50)
+);
+（3）检查语句中是否包含 TABLESPACE 定义：
+CREATE TABLE table_name (
+    id INT,
+    name VARCHAR(50)
+) TABLESPACE tablespace_name;
+（4）
+如果 CREATE TABLE 语句中未检测到 TABLESPACE 子句，则判定规则不通过。
+返回提示：例如“创建表时请指定表空间，以避免使用默认表空间导致管理混乱。”
+</t>
+  </si>
+  <si>
+    <t>建表索引时未指定索引表空间</t>
+  </si>
+  <si>
+    <t>创建索引时不指定表空间，不能直观的从SQL语句判断索引所在的表空间，不利于维护</t>
+  </si>
+  <si>
+    <t>（1）解析 CREATE INDEX 语句，检查是否包含 TABLESPACE 子句。
+（2）示例检测：CREATE INDEX index_name ON table_name (column_name);
+（3）检查是否指定表空间：
+CREATE INDEX index_name ON table_name (column_name) TABLESPACE tablespace_name;
+（4）定义规则：
+如果 CREATE INDEX 语句中未检测到 TABLESPACE 子句，则判定规则不通过。
+返回提示：例如“创建索引时请指定索引表空间，以便于索引管理和维护。”</t>
+  </si>
+  <si>
+    <t>unique索引必须使用固定前缀</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过配置该规则可以规范指定业务的unique索引命名规则，具体命名规范可以自定义设置，默认提示值：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uniq_</t>
+    </r>
+  </si>
+  <si>
+    <t>（1）解析 CREATE INDEX 或 ALTER TABLE 语句，检查是否是 UNIQUE 索引。
+提取索引名称，检查是否符合命名规则（如前缀为 uniq_）。
+（2）示例检测：
+CREATE UNIQUE INDEX index_name ON table_name (column_name);
+（3）检查 index_name 是否以 uniq_ 开头。
+（4）定义规则：
+如果索引名称不符合前缀要求（如不以 uniq_ 开头），则判定规则不通过。
+（5）返回提示：例如“UNIQUE 索引命名必须使用指定前缀（默认：uniq_），请重新命名索引。”</t>
+  </si>
+  <si>
+    <t>普通索引必须使用固定前缀</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过配置该规则可以规范指定业务的索引命名规则，具体命名规范可以自定义设置，默认提示值：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idx_</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">（1）解析 CREATE INDEX 或 ALTER TABLE 语句，检查是否是普通索引（非 UNIQUE 索引）。
+提取索引名称，检查是否符合命名规则（如前缀为 idx_）。
+（2）示例检测：
+CREATE INDEX index_name ON table_name (column_name);
+检查 index_name 是否以 idx_ 开头。
+（3）定义规则：
+如果索引名称不符合前缀要求（如不以 idx_ 开头），则判定规则不通过。
+返回提示：例如“普通索引命名必须使用指定前缀（默认：idx_），请重新命名索引。”
+</t>
+  </si>
+  <si>
+    <t>执行计划</t>
+  </si>
+  <si>
+    <t>数据类型转换: 内部转换(INTERNAL_FUNCTION)</t>
+  </si>
+  <si>
+    <t>数据类型转换: 内部转换(INTERNAL_FUNCTION).当执行计划出现INTERNAL_FUNCTION的时候索引肯定失效，这里可以理解为隐士转换。</t>
+  </si>
+  <si>
+    <t>（1）解析 SQL 语句，检查查询条件是否存在数据类型不一致的情况，例如将字符串与数字进行比较。
+（2）示例检测：SELECT * FROM table WHERE numeric_column = '123';
+（3）获取 SQL 的执行计划，检测是否出现 INTERNAL_FUNCTION 或类似的转换操作。
+（4）示例（MySQL 中通过 EXPLAIN 检测）：
+EXPLAIN SELECT * FROM table WHERE numeric_column = '123';
+在执行计划中，如果发现列被隐式转换，索引可能失效。
+（5）定义规则：
+如果解析出的 SQL 或执行计划中检测到 INTERNAL_FUNCTION，则判定规则不通过。
+（6）返回提示：例如“查询条件中存在隐式数据类型转换，请修改条件以避免索引失效。”</t>
+  </si>
+  <si>
+    <t>UPDATE和DELETE语句评估影响行数过大</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">评估影响行数过多，超过设置的阈值（针对UPDATE和DELETE语句），阈值 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10000</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">（1）解析 SQL 语句，识别 UPDATE 和 DELETE 类型的语句。
+（2）提取条件部分，用于进一步分析影响范围。
+（3）获取 SQL 的执行计划，通过 EXPLAIN 工具评估语句的影响行数。
+示例（MySQL 中）：
+EXPLAIN DELETE FROM table WHERE condition;
+执行计划中的 rows 字段表示影响的行数。
+（4）定义规则：
+如果 rows 字段值超过阈值（如 10000），则判定规则不通过。
+返回提示：例如“UPDATE 或 DELETE 语句影响的行数超过阈值，请优化查询条件以减少影响范围。”
+</t>
+  </si>
+  <si>
+    <t>delete 和 update 语句，必须带where条件</t>
+  </si>
+  <si>
+    <t>update、delete语句缺少where条件，存在错误更新全表数据的风险</t>
+  </si>
+  <si>
+    <t>（1）SQL解析器，解析 DELETE 和 UPDATE 语句，提取语句的 WHERE 子句部分。
+（2）检查是否存在 WHERE 子句。
+（3）定义规则：如果 WHERE 子句为空或不存在，则判定规则不通过。
+返回提示：例如“DELETE 和 UPDATE 语句必须带 WHERE 条件，以避免影响全表数据。”</t>
+  </si>
+  <si>
+    <t>default_Oracle</t>
+  </si>
+  <si>
+    <t>建议避免数据类型隐式转换</t>
+  </si>
+  <si>
+    <t>执行数据类型转换会增加资源开销，还可能导致索引失效，影响性能</t>
   </si>
 </sst>
 </file>
@@ -513,16 +2127,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -688,12 +2302,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -716,12 +2342,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,7 +2532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -924,43 +2544,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1000,6 +2583,112 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1133,7 +2822,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,162 +2834,294 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1309,95 +3130,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1737,445 +3549,445 @@
   </cols>
   <sheetData>
     <row r="4" ht="20.25" spans="2:18">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="63" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:18">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="M5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="40" t="s">
+      <c r="O5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="Q5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="27" spans="2:18">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="40" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="40"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="4"/>
     </row>
     <row r="7" ht="40.5" spans="2:18">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="25" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="25" t="s">
+      <c r="H7" s="66"/>
+      <c r="I7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="25" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="2:18">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="27" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="23"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="20" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="23"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="20" t="s">
+      <c r="B11" s="66"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" ht="135" customHeight="1" spans="2:18">
-      <c r="B12" s="24"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="20" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="34"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="34"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="36"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="5" t="s">
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4">
+      <c r="G17" s="10"/>
+      <c r="H17" s="9">
         <v>171</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="4"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="5" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="4"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="5" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
     </row>
     <row r="20" ht="78" customHeight="1" spans="2:18">
-      <c r="B20" s="4"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="5" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2227,66 +4039,66 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:3">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="59" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="2:3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="60" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="27" spans="2:3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="58"/>
+      <c r="C13" s="60" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="2:3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="59" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="62" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="52" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2303,394 +4115,359 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A10:F37"/>
+  <dimension ref="B5:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.24778761061947" customWidth="1"/>
-    <col min="2" max="2" width="16.6902654867257" customWidth="1"/>
-    <col min="3" max="3" width="26.3982300884956" customWidth="1"/>
-    <col min="4" max="4" width="18.646017699115" customWidth="1"/>
-    <col min="5" max="5" width="37.6814159292035" customWidth="1"/>
-    <col min="6" max="6" width="44.2654867256637" customWidth="1"/>
+    <col min="2" max="2" width="9.24778761061947" customWidth="1"/>
+    <col min="3" max="3" width="16.6902654867257" customWidth="1"/>
+    <col min="4" max="4" width="26.3982300884956" customWidth="1"/>
+    <col min="5" max="5" width="18.646017699115" customWidth="1"/>
+    <col min="6" max="6" width="37.6814159292035" customWidth="1"/>
+    <col min="7" max="7" width="44.2654867256637" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
+    <row r="5" spans="3:3">
+      <c r="C5" s="36"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G8" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
+    <row r="9" spans="2:7">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G9" s="10" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5" t="s">
+    <row r="10" spans="2:7">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G10" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5" t="s">
+    <row r="11" spans="2:7">
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G11" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5" t="s">
+    <row r="12" spans="2:7">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G12" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4" t="s">
+    <row r="13" spans="2:7">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F13" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" ht="21" customHeight="1" spans="1:6">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="2:7">
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" ht="31" customHeight="1" spans="2:7">
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5" t="s">
+      <c r="F15" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="G16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="6" t="s">
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="E17" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F17" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F18" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="F19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="37"/>
+      <c r="C20" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
+      <c r="E20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F20" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="7" t="s">
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="F21" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
+      <c r="E22" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" ht="57" customHeight="1" spans="2:7">
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="50"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="7" t="s">
+      <c r="E25" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="F25" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" ht="19" customHeight="1" spans="2:7">
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
+      <c r="F26" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2" t="s">
+      <c r="C27" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="53"/>
+      <c r="C28" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D28" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="E28" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="9" t="s">
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="56"/>
+      <c r="C29" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="2"/>
-      <c r="B34" s="9" t="s">
+      <c r="D29" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="E29" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2"/>
-      <c r="B35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="3"/>
-      <c r="B37" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="12"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A13:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B14:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D21:D22"/>
+  <mergeCells count="28">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="B6:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C7:C19"/>
+    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="D7:D12"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E22:G24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2700,16 +4477,3216 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B3:F68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:F48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="16.3362831858407" customWidth="1"/>
+    <col min="3" max="3" width="16.858407079646" customWidth="1"/>
+    <col min="4" max="4" width="37.2477876106195" customWidth="1"/>
+    <col min="5" max="5" width="57.0088495575221" customWidth="1"/>
+    <col min="6" max="6" width="37.5132743362832" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="27" spans="2:6">
+      <c r="B3" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" ht="40.5" spans="2:6">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" ht="27" spans="2:6">
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="22"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="22"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" ht="47" customHeight="1" spans="2:6">
+      <c r="B11" s="22"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="22"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="22"/>
+      <c r="C13" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="26"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="22"/>
+      <c r="C14" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" ht="37" customHeight="1" spans="2:6">
+      <c r="B15" s="22"/>
+      <c r="C15" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="27"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="28"/>
+      <c r="C18" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" ht="27" spans="2:6">
+      <c r="B19" s="28"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="28"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="28"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="28"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" ht="139" customHeight="1" spans="2:6">
+      <c r="B23" s="28"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="28"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="28"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="28"/>
+      <c r="C26" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="28"/>
+      <c r="C27" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="28"/>
+      <c r="C28" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="28"/>
+      <c r="C29" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="30"/>
+      <c r="C30" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="32"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="32"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="32"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="32"/>
+      <c r="C37" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="32"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="32"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="32"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="32"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="32"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="32"/>
+      <c r="C43" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="32"/>
+      <c r="C44" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="32"/>
+      <c r="C45" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="32"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="32"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="33"/>
+      <c r="C48" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" s="15"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="26"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="15"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="26"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="F53" s="15"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="26"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="15"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="26"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="26"/>
+      <c r="C56" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="26"/>
+      <c r="C57" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="26"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="26"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="26"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="26"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="26"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="87" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" ht="27" spans="2:6">
+      <c r="B63" s="26"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="26"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="26"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="26"/>
+      <c r="C66" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="35"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="26"/>
+      <c r="C67" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="27"/>
+      <c r="C68" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B33:B48"/>
+    <mergeCell ref="B51:B68"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="F8:F15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:G168"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="27.3893805309735" customWidth="1"/>
+    <col min="3" max="3" width="17.4690265486726" customWidth="1"/>
+    <col min="4" max="4" width="41.4955752212389" customWidth="1"/>
+    <col min="5" max="5" width="30.2743362831858" customWidth="1"/>
+    <col min="7" max="7" width="47.8849557522124" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="54" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="40.5" spans="2:7">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="40.5" spans="2:7">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="40.5" spans="2:7">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="54" spans="2:7">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="27" spans="2:7">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="27" spans="2:7">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="67.5" spans="2:7">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" ht="40.5" spans="2:7">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" ht="54" spans="2:7">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" ht="54" spans="2:7">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="40.5" spans="2:7">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" ht="54" spans="2:7">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" ht="67.5" spans="2:7">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" ht="67.5" spans="2:7">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="40.5" spans="2:7">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" ht="67.5" spans="2:7">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" ht="27" spans="2:7">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="67.5" spans="2:7">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" ht="81" spans="2:7">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" ht="40.5" spans="2:7">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" ht="40.5" spans="2:7">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" ht="40.5" spans="2:7">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" ht="40.5" spans="2:7">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" ht="67.5" spans="2:7">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" ht="27" spans="2:7">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" ht="40.5" spans="2:7">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" ht="40.5" spans="2:7">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" ht="54" spans="2:7">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" ht="67.5" spans="2:7">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" ht="40.5" spans="2:7">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" ht="27" spans="2:7">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" ht="40.5" spans="2:7">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" ht="27" spans="2:7">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" ht="54" spans="2:7">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" ht="54" spans="2:7">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" ht="67.5" spans="2:7">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" ht="60" customHeight="1" spans="2:7">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" ht="40.5" spans="2:7">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" ht="27" spans="2:7">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" ht="40.5" spans="2:7">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" ht="81" spans="2:7">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" ht="40.5" spans="2:7">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" ht="67.5" spans="2:7">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" ht="40.5" spans="2:7">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" ht="40.5" spans="2:7">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" ht="40.5" spans="2:7">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" ht="27" spans="2:7">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" ht="27" spans="2:7">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" ht="54" spans="2:7">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" ht="40.5" spans="2:7">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" ht="40.5" spans="2:7">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" ht="54" spans="2:7">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" ht="67.5" spans="2:7">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" ht="27" spans="2:7">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" ht="40.5" spans="2:7">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" ht="27" spans="2:7">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" ht="54" spans="2:7">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" ht="310.5" spans="2:7">
+      <c r="B60" s="1"/>
+      <c r="C60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" ht="40.5" spans="2:7">
+      <c r="B61" s="1"/>
+      <c r="C61" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" ht="27" spans="2:7">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" ht="40.5" spans="2:7">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" ht="40.5" spans="2:7">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" ht="27" spans="2:7">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" ht="54" spans="2:7">
+      <c r="B66" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" ht="40.5" spans="2:7">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" ht="40.5" spans="2:7">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" ht="40.5" spans="2:7">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" ht="54" spans="2:7">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" ht="27" spans="2:7">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" ht="27" spans="2:7">
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" ht="67.5" spans="2:7">
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" ht="40.5" spans="2:7">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" ht="54" spans="2:7">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" ht="54" spans="2:7">
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G76" s="6"/>
+    </row>
+    <row r="77" ht="40.5" spans="2:7">
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G77" s="6"/>
+    </row>
+    <row r="78" ht="54" spans="2:7">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" ht="81" spans="2:7">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" ht="40.5" spans="2:7">
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" ht="40.5" spans="2:7">
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" s="6"/>
+    </row>
+    <row r="82" ht="27" spans="2:7">
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" s="6"/>
+    </row>
+    <row r="83" ht="40.5" spans="2:7">
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G83" s="6"/>
+    </row>
+    <row r="84" ht="40.5" spans="2:7">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" ht="40.5" spans="2:7">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" s="6"/>
+    </row>
+    <row r="86" ht="108" spans="2:7">
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G86" s="6"/>
+    </row>
+    <row r="87" ht="67.5" spans="2:7">
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G87" s="6"/>
+    </row>
+    <row r="88" ht="27" spans="2:7">
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G88" s="6"/>
+    </row>
+    <row r="89" ht="40.5" spans="2:7">
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G89" s="6"/>
+    </row>
+    <row r="90" ht="40.5" spans="2:7">
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G90" s="6"/>
+    </row>
+    <row r="91" ht="54" spans="2:7">
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" s="6"/>
+    </row>
+    <row r="92" ht="83" customHeight="1" spans="2:7">
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G92" s="6"/>
+    </row>
+    <row r="93" ht="40.5" spans="2:7">
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" ht="27" spans="2:7">
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G94" s="6"/>
+    </row>
+    <row r="95" ht="40.5" spans="2:7">
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G95" s="6"/>
+    </row>
+    <row r="96" ht="27" spans="2:7">
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G96" s="6"/>
+    </row>
+    <row r="97" ht="54" spans="2:7">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" s="6"/>
+    </row>
+    <row r="98" ht="94.5" spans="2:7">
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" ht="54" spans="2:7">
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G99" s="6"/>
+    </row>
+    <row r="100" ht="54" spans="2:7">
+      <c r="B100" s="5"/>
+      <c r="C100" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" ht="67.5" spans="2:7">
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" ht="40.5" spans="2:7">
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G102" s="6"/>
+    </row>
+    <row r="103" ht="40.5" spans="2:7">
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" ht="40.5" spans="2:7">
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" ht="67.5" spans="2:7">
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" ht="81" spans="2:7">
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" ht="40.5" spans="2:7">
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" ht="67.5" spans="2:7">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" ht="40.5" spans="2:7">
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" ht="40.5" spans="2:7">
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" ht="40.5" spans="2:7">
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" ht="27" spans="2:7">
+      <c r="B112" s="5"/>
+      <c r="C112" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" ht="27" spans="2:7">
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" ht="54" spans="2:7">
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E114" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" ht="40.5" spans="2:7">
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" ht="40.5" spans="2:7">
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" ht="54" spans="2:7">
+      <c r="B117" s="5"/>
+      <c r="C117" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" ht="67.5" spans="2:7">
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" ht="27" spans="2:7">
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" ht="40.5" spans="2:7">
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" ht="27" spans="2:7">
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" ht="54" spans="2:7">
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" ht="310.5" spans="2:7">
+      <c r="B123" s="5"/>
+      <c r="C123" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" ht="40.5" spans="2:7">
+      <c r="B124" s="5"/>
+      <c r="C124" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" ht="27" spans="2:7">
+      <c r="B125" s="5"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G125" s="6"/>
+    </row>
+    <row r="126" ht="40.5" spans="2:7">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G126" s="6"/>
+    </row>
+    <row r="127" ht="40.5" spans="2:7">
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G127" s="6"/>
+    </row>
+    <row r="128" ht="27" spans="2:7">
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" ht="94.5" spans="2:7">
+      <c r="B129" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="D129" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="130" ht="94.5" spans="2:7">
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G130" s="11" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="131" ht="132" customHeight="1" spans="2:7">
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E131" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="132" ht="128" customHeight="1" spans="2:7">
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="133" ht="216" spans="2:7">
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E133" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="134" ht="108" spans="2:7">
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E134" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="135" ht="205" customHeight="1" spans="2:7">
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E135" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F135" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G135" s="11" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="136" ht="176" customHeight="1" spans="2:7">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E136" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G136" s="11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="137" ht="142" customHeight="1" spans="2:7">
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="138" ht="196" customHeight="1" spans="2:7">
+      <c r="B138" s="9"/>
+      <c r="C138" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E138" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G138" s="11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="139" ht="121.5" spans="2:7">
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F139" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G139" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="140" ht="145" customHeight="1" spans="2:7">
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E140" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="141" ht="180" customHeight="1" spans="2:7">
+      <c r="B141" s="9"/>
+      <c r="C141" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D141" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E141" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G141" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="142" ht="232" customHeight="1" spans="2:7">
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G142" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="143" ht="181" customHeight="1" spans="2:7">
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" ht="201" customHeight="1" spans="2:7">
+      <c r="B144" s="9"/>
+      <c r="C144" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D144" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G144" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="145" ht="193" customHeight="1" spans="2:7">
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="F145" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="146" ht="216" spans="2:7">
+      <c r="B146" s="9"/>
+      <c r="C146" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="147" ht="120" customHeight="1" spans="2:7">
+      <c r="B147" s="9"/>
+      <c r="C147" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="148" ht="102" customHeight="1" spans="2:7">
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G148" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="149" ht="94.5" spans="2:7">
+      <c r="B149" s="14" t="s">
+        <v>417</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D149" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G149" s="16"/>
+    </row>
+    <row r="150" ht="67.5" spans="2:7">
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G150" s="16"/>
+    </row>
+    <row r="151" ht="54" spans="2:7">
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G151" s="16"/>
+    </row>
+    <row r="152" ht="67.5" spans="2:7">
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G152" s="16"/>
+    </row>
+    <row r="153" ht="27" spans="2:7">
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F153" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G153" s="17"/>
+    </row>
+    <row r="154" ht="40.5" spans="2:7">
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G154" s="16"/>
+    </row>
+    <row r="155" ht="40.5" spans="2:7">
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G155" s="16"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G156" s="16"/>
+    </row>
+    <row r="157" ht="27" spans="2:7">
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="F157" s="15"/>
+      <c r="G157" s="16"/>
+    </row>
+    <row r="158" ht="27" spans="2:7">
+      <c r="B158" s="14"/>
+      <c r="C158" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="F158" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G158" s="16"/>
+    </row>
+    <row r="159" ht="54" spans="2:7">
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G159" s="16"/>
+    </row>
+    <row r="160" ht="54" spans="2:7">
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F160" s="15"/>
+      <c r="G160" s="16"/>
+    </row>
+    <row r="161" ht="27" spans="2:7">
+      <c r="B161" s="14"/>
+      <c r="C161" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D161" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F161" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G161" s="16"/>
+    </row>
+    <row r="162" ht="27" spans="2:7">
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="F162" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G162" s="16"/>
+    </row>
+    <row r="163" ht="40.5" spans="2:7">
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F163" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G163" s="16"/>
+    </row>
+    <row r="164" ht="54" spans="2:7">
+      <c r="B164" s="14"/>
+      <c r="C164" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="F164" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G164" s="16"/>
+    </row>
+    <row r="165" ht="40.5" spans="2:7">
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="F165" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G165" s="16"/>
+    </row>
+    <row r="166" ht="40.5" spans="2:7">
+      <c r="B166" s="14"/>
+      <c r="C166" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="F166" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G166" s="16"/>
+    </row>
+    <row r="167" ht="40.5" spans="2:7">
+      <c r="B167" s="14"/>
+      <c r="C167" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="F167" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G167" s="16"/>
+    </row>
+    <row r="168" ht="27" spans="2:7">
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="F168" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="G168" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="B1:B65"/>
+    <mergeCell ref="B66:B128"/>
+    <mergeCell ref="B129:B148"/>
+    <mergeCell ref="B149:B168"/>
+    <mergeCell ref="C1:C12"/>
+    <mergeCell ref="C13:C36"/>
+    <mergeCell ref="C37:C48"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="C61:C65"/>
+    <mergeCell ref="C66:C77"/>
+    <mergeCell ref="C78:C99"/>
+    <mergeCell ref="C100:C111"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="C129:C137"/>
+    <mergeCell ref="C138:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C149:C157"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="C167:C168"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="8" max="8" width="14.5398230088496" customWidth="1"/>
-  </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
+++ b/003.python_study/006.project/001.sql_approval/009.________.需求确定/004.技术支持.xlsx
@@ -12,7 +12,6 @@
     <sheet name="3.概要设计" sheetId="3" r:id="rId3"/>
     <sheet name="4.详细设计" sheetId="4" r:id="rId4"/>
     <sheet name="5.规则模板" sheetId="5" r:id="rId5"/>
-    <sheet name="6.审核实现方案" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="442">
   <si>
     <t>平台</t>
   </si>
@@ -370,10 +369,10 @@
     <t>捕获SQL执行结果并反馈到审核系统</t>
   </si>
   <si>
-    <t>结果报表</t>
-  </si>
-  <si>
-    <t>审核结果的汇总</t>
+    <t>工单结果</t>
+  </si>
+  <si>
+    <t>包括执行结果，执行信息</t>
   </si>
   <si>
     <t>自动审核</t>
@@ -389,6 +388,9 @@
 （ MySQL 的 Binlog，Oracle 的 Redo Log 等）</t>
   </si>
   <si>
+    <t>结果报表</t>
+  </si>
+  <si>
     <t>对执行结果生成报告，包含问题和建议</t>
   </si>
   <si>
@@ -416,6 +418,24 @@
     <t>基础功能</t>
   </si>
   <si>
+    <t>审核参数配置</t>
+  </si>
+  <si>
+    <t>通知功能</t>
+  </si>
+  <si>
+    <t>查看审批任务、审批列表。</t>
+  </si>
+  <si>
+    <t>资源组管理</t>
+  </si>
+  <si>
+    <t>管理资源组：创建、删除、更新</t>
+  </si>
+  <si>
+    <t>关联用户：将“系统用户”和“资源组”关联起来</t>
+  </si>
+  <si>
     <t>数据库连接信息</t>
   </si>
   <si>
@@ -428,63 +448,27 @@
     <t>测试到目标数据库的连通性</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>权限管理
-（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>修改为审批流配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">用户与角色（使用源系统的）  
+    <t>关联</t>
+  </si>
+  <si>
+    <t>关联“资源组”</t>
+  </si>
+  <si>
+    <t>关联“用户”</t>
+  </si>
+  <si>
+    <t>权限管理
+（修改为审批流配置）</t>
+  </si>
+  <si>
+    <t>用户与角色（使用源系统的）  
 审核权限 控制谁能进行SQL审核。 
-执行权限 控制谁能执行SQL。 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+执行权限 控制谁能执行SQL。 
 这是审批流程配置，如指定 DBA 组审批，实际上已经明确了哪些用户可以审核工单，相当于实现了审核权限的分配。不需要单独再做一套权限控制体系，只需确保审批流配置和用户组的关联正确即可。
 提交工单的人默认就是执行工单的人。</t>
-    </r>
+  </si>
+  <si>
+    <t>审批流配置</t>
   </si>
   <si>
     <t>仪表盘</t>
@@ -526,9 +510,6 @@
     <t xml:space="preserve">Apache Calcite </t>
   </si>
   <si>
-    <t>通知功能</t>
-  </si>
-  <si>
     <t>红点提示</t>
   </si>
   <si>
@@ -545,6 +526,12 @@
   </si>
   <si>
     <t>点击某条通知，可以跳转到工单详情页，进行审核或查看。</t>
+  </si>
+  <si>
+    <t>跳转</t>
+  </si>
+  <si>
+    <t>审批页面</t>
   </si>
   <si>
     <t>审批参数配置</t>
@@ -696,7 +683,7 @@
     </r>
   </si>
   <si>
-    <t>禁止使用 SELECT *</t>
+    <t>示例：禁止使用 SELECT *</t>
   </si>
   <si>
     <t>说明*</t>
@@ -791,7 +778,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>（不同数据库分类有点不同，间统一归类）</t>
+      <t>（不同数据库分类有点不同，建议统一归类）</t>
     </r>
     <r>
       <rPr>
@@ -1014,6 +1001,43 @@
     <t>快速创建新的“规则模板”</t>
   </si>
   <si>
+    <t>资源组“管理”</t>
+  </si>
+  <si>
+    <t>资源组ID</t>
+  </si>
+  <si>
+    <t>资源组名称</t>
+  </si>
+  <si>
+    <t>添加、修改、删除、更新、关联</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>资源组名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>关联“系统用户”或“其它（如：系统组）”</t>
+  </si>
+  <si>
     <t>数据源名</t>
   </si>
   <si>
@@ -1032,7 +1056,7 @@
     <t>数据源类型</t>
   </si>
   <si>
-    <t>编辑、删除、测试连通性</t>
+    <t>编辑、删除、测试连通性、关联</t>
   </si>
   <si>
     <t>条件</t>
@@ -1207,6 +1231,18 @@
   </si>
   <si>
     <t>“是否开启SQL审核业务”为“是”必填</t>
+  </si>
+  <si>
+    <t>关联用户</t>
+  </si>
+  <si>
+    <t>使“单独的用户”可以拥有某个资源的使用权限</t>
+  </si>
+  <si>
+    <t>关联资源组</t>
+  </si>
+  <si>
+    <t>使“有权查看某个资源的用户”可以查看该资源</t>
   </si>
   <si>
     <t>添加数据源</t>
@@ -2118,7 +2154,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2129,6 +2165,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2532,7 +2575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2610,6 +2653,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2816,137 +2870,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3005,16 +3059,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3031,13 +3076,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3049,12 +3091,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3070,54 +3121,72 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3136,7 +3205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3187,7 +3256,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3549,55 +3618,55 @@
   </cols>
   <sheetData>
     <row r="4" ht="20.25" spans="2:18">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="63" t="s">
+      <c r="M4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="63" t="s">
+      <c r="P4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="68" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3611,16 +3680,16 @@
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="70" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -3629,7 +3698,7 @@
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="80" t="s">
+      <c r="K5" s="85" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -3658,10 +3727,10 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="66"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="4" t="s">
@@ -3679,14 +3748,14 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="66"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="66"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="2" t="s">
         <v>33</v>
       </c>
@@ -3708,12 +3777,12 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="67"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="67"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="1"/>
@@ -3726,26 +3795,26 @@
       <c r="R8" s="2"/>
     </row>
     <row r="9" ht="29" customHeight="1" spans="2:18">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="74" t="s">
         <v>39</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="68" t="s">
+      <c r="K9" s="73" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="1"/>
@@ -3757,10 +3826,10 @@
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="66"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
@@ -3768,7 +3837,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="81"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -3778,10 +3847,10 @@
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="66"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
       <c r="F11" s="1" t="s">
         <v>31</v>
       </c>
@@ -3789,7 +3858,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="81"/>
+      <c r="K11" s="86"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -3799,10 +3868,10 @@
       <c r="R11" s="1"/>
     </row>
     <row r="12" ht="135" customHeight="1" spans="2:18">
-      <c r="B12" s="67"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
@@ -3810,7 +3879,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="82"/>
+      <c r="K12" s="87"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -3820,13 +3889,13 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="74"/>
+      <c r="D13" s="79"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -3843,9 +3912,9 @@
       <c r="R13" s="10"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="75"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="76"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="81"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -3862,9 +3931,9 @@
       <c r="R14" s="10"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="75"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="76"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="81"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -3881,9 +3950,9 @@
       <c r="R15" s="10"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="77"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="78"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -3903,11 +3972,11 @@
       <c r="B17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="73" t="s">
+      <c r="C17" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="10" t="s">
         <v>44</v>
       </c>
@@ -3915,9 +3984,9 @@
       <c r="H17" s="9">
         <v>171</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="84"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="89"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
@@ -3928,17 +3997,17 @@
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="9"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="85"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="90"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
@@ -3949,17 +4018,17 @@
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="9"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="85"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="90"/>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
@@ -3970,17 +4039,17 @@
     </row>
     <row r="20" ht="78" customHeight="1" spans="2:18">
       <c r="B20" s="9"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="86"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="91"/>
       <c r="L20" s="10"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
@@ -4039,66 +4108,66 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="64" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" ht="40.5" spans="2:3">
-      <c r="B10" s="58"/>
-      <c r="C10" s="60" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="65" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="27" spans="2:3">
-      <c r="B13" s="58"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="65" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" ht="13" customHeight="1" spans="2:3">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="67" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="59" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4115,10 +4184,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B5:G29"/>
+  <dimension ref="B5:G36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4132,25 +4201,25 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:3">
-      <c r="C5" s="36"/>
+      <c r="C5" s="35"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="37"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -4165,8 +4234,8 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
         <v>62</v>
@@ -4179,8 +4248,8 @@
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10" t="s">
@@ -4191,8 +4260,8 @@
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
@@ -4203,8 +4272,8 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
@@ -4215,8 +4284,8 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="10" t="s">
@@ -4227,8 +4296,8 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
       <c r="D13" s="9" t="s">
         <v>72</v>
       </c>
@@ -4241,205 +4310,281 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" ht="15" customHeight="1" spans="2:7">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="39"/>
+      <c r="G14" s="38"/>
     </row>
     <row r="15" ht="31" customHeight="1" spans="2:7">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="39" t="s">
         <v>75</v>
       </c>
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="10" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="40"/>
+      <c r="F17" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="39"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37" t="s">
-        <v>84</v>
+      <c r="B20" s="36"/>
+      <c r="C20" s="40" t="s">
+        <v>85</v>
       </c>
       <c r="D20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="36"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="41"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="36"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="41"/>
+      <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="36"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="41"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="36"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="14"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" ht="57" customHeight="1" spans="2:7">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
+      <c r="E24" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>92</v>
+      <c r="B25" s="36"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G25" s="14"/>
     </row>
-    <row r="26" ht="19" customHeight="1" spans="2:7">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="15" t="s">
-        <v>94</v>
+    <row r="26" spans="2:7">
+      <c r="B26" s="36"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G26" s="14"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="52" t="s">
+      <c r="B27" s="36"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="36"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="36"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" ht="57" customHeight="1" spans="2:7">
+      <c r="B30" s="36"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="36"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="57"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="36"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" ht="19" customHeight="1" spans="2:7">
+      <c r="B33" s="36"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="53"/>
-      <c r="C28" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="56"/>
-      <c r="C29" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="55"/>
+      <c r="D34" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="42"/>
+      <c r="C35" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" s="60"/>
+      <c r="G35" s="61"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="58"/>
+      <c r="C36" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="37">
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="F13:G13"/>
@@ -4448,26 +4593,35 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="B6:B26"/>
-    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B6:B33"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="C7:C19"/>
-    <mergeCell ref="C20:C26"/>
+    <mergeCell ref="C20:C33"/>
     <mergeCell ref="D7:D12"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="D32:D33"/>
     <mergeCell ref="E8:E12"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E22:G24"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:G30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4477,10 +4631,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F68"/>
+  <dimension ref="B3:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:F48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4492,684 +4646,823 @@
     <col min="6" max="6" width="37.5132743362832" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="27" spans="2:6">
-      <c r="B3" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" ht="40.5" spans="2:6">
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="5" ht="27" spans="2:6">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
+    <row r="3" spans="2:6">
+      <c r="B3" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>113</v>
+      <c r="B8" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>125</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>115</v>
+        <v>126</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="22"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="24" t="s">
-        <v>116</v>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21" t="s">
+        <v>128</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="26"/>
+        <v>129</v>
+      </c>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="22"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="24" t="s">
-        <v>118</v>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="26"/>
+        <v>131</v>
+      </c>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" ht="47" customHeight="1" spans="2:6">
-      <c r="B11" s="22"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="24" t="s">
-        <v>120</v>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="26"/>
+        <v>133</v>
+      </c>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="22"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="26"/>
+        <v>134</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="26"/>
+        <v>135</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" ht="37" customHeight="1" spans="2:6">
-      <c r="B15" s="22"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="15" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="27"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="28"/>
+      <c r="B18" s="23" t="s">
+        <v>81</v>
+      </c>
       <c r="C18" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>125</v>
+        <v>134</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F18" s="15"/>
     </row>
     <row r="19" ht="27" spans="2:6">
-      <c r="B19" s="28"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="14"/>
       <c r="D19" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>128</v>
+        <v>139</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="28"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="24" t="s">
-        <v>129</v>
+      <c r="D20" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="28"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="24" t="s">
-        <v>131</v>
+      <c r="D21" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="28"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="24" t="s">
-        <v>132</v>
+      <c r="D22" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" ht="139" customHeight="1" spans="2:6">
-      <c r="B23" s="28"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="24" t="s">
-        <v>131</v>
+      <c r="D23" s="21" t="s">
+        <v>143</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="28"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="24" t="s">
-        <v>137</v>
+      <c r="D24" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="28"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="24" t="s">
-        <v>140</v>
+      <c r="D25" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="28"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="15" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="28"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="15" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+        <v>156</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="28"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="23"/>
+      <c r="C29" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="24"/>
+      <c r="C30" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="28"/>
-      <c r="C29" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="30"/>
-      <c r="C30" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>112</v>
-      </c>
       <c r="D33" s="14" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="32"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+        <v>163</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="32"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="28"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="32"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="14" t="s">
-        <v>140</v>
-      </c>
       <c r="E36" s="14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="F36" s="14"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="32"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>154</v>
+        <v>134</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="32"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="14"/>
       <c r="D38" s="15" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F38" s="15"/>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="32"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="24" t="s">
-        <v>158</v>
+      <c r="D39" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="32"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="24" t="s">
-        <v>159</v>
+      <c r="D40" s="21" t="s">
+        <v>171</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="32"/>
+      <c r="B41" s="28"/>
       <c r="C41" s="14"/>
-      <c r="D41" s="24" t="s">
-        <v>162</v>
+      <c r="D41" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="32"/>
+      <c r="B42" s="28"/>
       <c r="C42" s="14"/>
       <c r="D42" s="15" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E42" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="28"/>
+      <c r="C43" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="28"/>
+      <c r="C44" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="28"/>
+      <c r="C45" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="28"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="28"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" s="15"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="29"/>
+      <c r="C48" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="14"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="32"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="14"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="F53" s="32"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="23"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="15"/>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="23"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="32"/>
-      <c r="C43" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" s="32"/>
-      <c r="C44" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="32"/>
-      <c r="C45" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" s="32"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" s="32"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="15"/>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" s="33"/>
-      <c r="C48" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="26"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="15"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="26"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F53" s="15"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="26"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="15"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="26"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="F55" s="15"/>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="26"/>
-      <c r="C56" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F56" s="15"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="26"/>
-      <c r="C57" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F57" s="15"/>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="26"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="26"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="26"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E60" s="87" t="s">
-        <v>186</v>
-      </c>
-      <c r="F60" s="15"/>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="26"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F61" s="15"/>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="26"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E62" s="87" t="s">
-        <v>190</v>
+      <c r="E62" s="15" t="s">
+        <v>194</v>
       </c>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" ht="27" spans="2:6">
-      <c r="B63" s="26"/>
+    <row r="63" spans="2:6">
+      <c r="B63" s="23"/>
       <c r="C63" s="14"/>
       <c r="D63" s="15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>193</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F63" s="15"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="26"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="14"/>
       <c r="D64" s="15" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="E64" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="23"/>
+      <c r="C65" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F65" s="15"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="23"/>
+      <c r="C66" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="15"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="23"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="23"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="23"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F69" s="15"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="23"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="23"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" s="15"/>
+    </row>
+    <row r="72" ht="27" spans="2:6">
+      <c r="B72" s="23"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="23"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" s="26"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" s="26"/>
-      <c r="C66" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F66" s="35"/>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" s="26"/>
-      <c r="C67" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" s="27"/>
-      <c r="C68" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
+      <c r="F73" s="34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="23"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="23"/>
+      <c r="C75" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="24"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="14"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="23"/>
+      <c r="C77" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F77" s="32"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="23"/>
+      <c r="C78" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="23"/>
+      <c r="C79" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="46">
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="D26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="D33:F33"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="B8:B15"/>
     <mergeCell ref="B18:B30"/>
     <mergeCell ref="B33:B48"/>
-    <mergeCell ref="B51:B68"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B60:B79"/>
     <mergeCell ref="C8:C12"/>
     <mergeCell ref="C18:C25"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C51:C55"/>
-    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C60:C64"/>
+    <mergeCell ref="C66:C74"/>
+    <mergeCell ref="C75:C76"/>
     <mergeCell ref="F8:F15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5182,7 +5475,7 @@
   <sheetPr/>
   <dimension ref="B1:G168"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
@@ -5197,19 +5490,19 @@
   <sheetData>
     <row r="1" ht="54" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -5217,13 +5510,13 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -5231,13 +5524,13 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -5245,13 +5538,13 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -5259,13 +5552,13 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -5273,13 +5566,13 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="2" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -5287,13 +5580,13 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="2" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -5301,13 +5594,13 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -5315,13 +5608,13 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -5329,13 +5622,13 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -5343,13 +5636,13 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -5357,29 +5650,29 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" ht="54" spans="2:7">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -5387,13 +5680,13 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="3" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -5401,13 +5694,13 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="2" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -5415,13 +5708,13 @@
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="3" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -5429,13 +5722,13 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="2" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -5443,13 +5736,13 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -5457,13 +5750,13 @@
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -5471,13 +5764,13 @@
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="3" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G20" s="2"/>
     </row>
@@ -5485,13 +5778,13 @@
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -5499,13 +5792,13 @@
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -5513,13 +5806,13 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -5527,13 +5820,13 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -5541,13 +5834,13 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="3" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G25" s="2"/>
     </row>
@@ -5555,13 +5848,13 @@
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -5569,13 +5862,13 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G27" s="2"/>
     </row>
@@ -5583,13 +5876,13 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="3" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G28" s="2"/>
     </row>
@@ -5597,13 +5890,13 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="3" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G29" s="2"/>
     </row>
@@ -5611,13 +5904,13 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="2" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G30" s="2"/>
     </row>
@@ -5625,13 +5918,13 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="2" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G31" s="2"/>
     </row>
@@ -5639,13 +5932,13 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="2" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G32" s="2"/>
     </row>
@@ -5653,13 +5946,13 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="2" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G33" s="2"/>
     </row>
@@ -5667,13 +5960,13 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="2" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G34" s="2"/>
     </row>
@@ -5681,13 +5974,13 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="2" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G35" s="2"/>
     </row>
@@ -5695,29 +5988,29 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="2" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G36" s="2"/>
     </row>
     <row r="37" ht="54" spans="2:7">
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G37" s="2"/>
     </row>
@@ -5725,13 +6018,13 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="3" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G38" s="2"/>
     </row>
@@ -5739,13 +6032,13 @@
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="2" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -5753,13 +6046,13 @@
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="2" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -5767,13 +6060,13 @@
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="3" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G41" s="2"/>
     </row>
@@ -5781,13 +6074,13 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G42" s="2"/>
     </row>
@@ -5795,13 +6088,13 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -5809,13 +6102,13 @@
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G44" s="2"/>
     </row>
@@ -5823,13 +6116,13 @@
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="2" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G45" s="2"/>
     </row>
@@ -5837,13 +6130,13 @@
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G46" s="2"/>
     </row>
@@ -5851,13 +6144,13 @@
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="2" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G47" s="2"/>
     </row>
@@ -5865,29 +6158,29 @@
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="3" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G48" s="2"/>
     </row>
     <row r="49" ht="27" spans="2:7">
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G49" s="2"/>
     </row>
@@ -5895,13 +6188,13 @@
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="2" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G50" s="2"/>
     </row>
@@ -5909,13 +6202,13 @@
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="2" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G51" s="2"/>
     </row>
@@ -5923,13 +6216,13 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="3" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G52" s="2"/>
     </row>
@@ -5937,29 +6230,29 @@
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="2" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G53" s="2"/>
     </row>
     <row r="54" ht="54" spans="2:7">
       <c r="B54" s="1"/>
       <c r="C54" s="1" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G54" s="2"/>
     </row>
@@ -5967,13 +6260,13 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="2" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G55" s="2"/>
     </row>
@@ -5981,13 +6274,13 @@
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="3" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G56" s="2"/>
     </row>
@@ -5995,13 +6288,13 @@
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G57" s="2"/>
     </row>
@@ -6009,13 +6302,13 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G58" s="2"/>
     </row>
@@ -6023,47 +6316,47 @@
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G59" s="2"/>
     </row>
     <row r="60" ht="310.5" spans="2:7">
       <c r="B60" s="1"/>
       <c r="C60" s="2" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="61" ht="40.5" spans="2:7">
       <c r="B61" s="1"/>
       <c r="C61" s="4" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G61" s="2"/>
     </row>
@@ -6071,13 +6364,13 @@
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G62" s="2"/>
     </row>
@@ -6085,13 +6378,13 @@
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G63" s="2"/>
     </row>
@@ -6099,13 +6392,13 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="3" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -6113,31 +6406,31 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="3" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G65" s="2"/>
     </row>
     <row r="66" ht="54" spans="2:7">
       <c r="B66" s="5" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G66" s="6"/>
     </row>
@@ -6145,13 +6438,13 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G67" s="6"/>
     </row>
@@ -6159,13 +6452,13 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G68" s="6"/>
     </row>
@@ -6173,13 +6466,13 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="6" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G69" s="6"/>
     </row>
@@ -6187,13 +6480,13 @@
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
       <c r="D70" s="7" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G70" s="6"/>
     </row>
@@ -6201,13 +6494,13 @@
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
       <c r="D71" s="6" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G71" s="6"/>
     </row>
@@ -6215,13 +6508,13 @@
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="6" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G72" s="6"/>
     </row>
@@ -6229,13 +6522,13 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="6" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G73" s="6"/>
     </row>
@@ -6243,13 +6536,13 @@
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="6" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G74" s="6"/>
     </row>
@@ -6257,13 +6550,13 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="6" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G75" s="6"/>
     </row>
@@ -6271,13 +6564,13 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="7" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G76" s="6"/>
     </row>
@@ -6285,29 +6578,29 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="6" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G77" s="6"/>
     </row>
     <row r="78" ht="54" spans="2:7">
       <c r="B78" s="5"/>
       <c r="C78" s="5" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G78" s="6"/>
     </row>
@@ -6315,13 +6608,13 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="7" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G79" s="6"/>
     </row>
@@ -6329,13 +6622,13 @@
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="6" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G80" s="6"/>
     </row>
@@ -6343,13 +6636,13 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="6" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G81" s="6"/>
     </row>
@@ -6357,13 +6650,13 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="6" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G82" s="6"/>
     </row>
@@ -6371,13 +6664,13 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="6" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G83" s="6"/>
     </row>
@@ -6385,13 +6678,13 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="6" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G84" s="6"/>
     </row>
@@ -6399,13 +6692,13 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="7" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G85" s="6"/>
     </row>
@@ -6413,13 +6706,13 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="G86" s="6"/>
     </row>
@@ -6427,13 +6720,13 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="6" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G87" s="6"/>
     </row>
@@ -6441,13 +6734,13 @@
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="6" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G88" s="6"/>
     </row>
@@ -6455,13 +6748,13 @@
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G89" s="6"/>
     </row>
@@ -6469,13 +6762,13 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="7" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G90" s="6"/>
     </row>
@@ -6483,13 +6776,13 @@
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="6" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G91" s="6"/>
     </row>
@@ -6497,13 +6790,13 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G92" s="6"/>
     </row>
@@ -6511,13 +6804,13 @@
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="6" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G93" s="6"/>
     </row>
@@ -6525,13 +6818,13 @@
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="6" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G94" s="6"/>
     </row>
@@ -6539,13 +6832,13 @@
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="6" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G95" s="6"/>
     </row>
@@ -6553,13 +6846,13 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="6" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G96" s="6"/>
     </row>
@@ -6567,13 +6860,13 @@
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="6" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="G97" s="6"/>
     </row>
@@ -6581,13 +6874,13 @@
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="6" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="G98" s="6"/>
     </row>
@@ -6595,29 +6888,29 @@
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
       <c r="D99" s="6" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G99" s="6"/>
     </row>
     <row r="100" ht="54" spans="2:7">
       <c r="B100" s="5"/>
       <c r="C100" s="5" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G100" s="6"/>
     </row>
@@ -6625,13 +6918,13 @@
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G101" s="6"/>
     </row>
@@ -6639,13 +6932,13 @@
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="6" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G102" s="6"/>
     </row>
@@ -6653,13 +6946,13 @@
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G103" s="6"/>
     </row>
@@ -6667,13 +6960,13 @@
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
       <c r="D104" s="6" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G104" s="6"/>
     </row>
@@ -6681,13 +6974,13 @@
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="6" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="G105" s="6"/>
     </row>
@@ -6695,13 +6988,13 @@
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="6" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G106" s="6"/>
     </row>
@@ -6709,13 +7002,13 @@
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="6" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G107" s="6"/>
     </row>
@@ -6723,13 +7016,13 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="6" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G108" s="6"/>
     </row>
@@ -6737,13 +7030,13 @@
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
       <c r="D109" s="6" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G109" s="6"/>
     </row>
@@ -6751,13 +7044,13 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="6" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G110" s="6"/>
     </row>
@@ -6765,29 +7058,29 @@
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="7" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G111" s="6"/>
     </row>
     <row r="112" ht="27" spans="2:7">
       <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G112" s="6"/>
     </row>
@@ -6795,13 +7088,13 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="6" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G113" s="6"/>
     </row>
@@ -6809,13 +7102,13 @@
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="6" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G114" s="6"/>
     </row>
@@ -6823,13 +7116,13 @@
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="7" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G115" s="6"/>
     </row>
@@ -6837,29 +7130,29 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="6" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G116" s="6"/>
     </row>
     <row r="117" ht="54" spans="2:7">
       <c r="B117" s="5"/>
       <c r="C117" s="5" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G117" s="6"/>
     </row>
@@ -6867,13 +7160,13 @@
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
       <c r="D118" s="6" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G118" s="6"/>
     </row>
@@ -6881,13 +7174,13 @@
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
       <c r="D119" s="7" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G119" s="6"/>
     </row>
@@ -6895,13 +7188,13 @@
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="6" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G120" s="6"/>
     </row>
@@ -6909,13 +7202,13 @@
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="6" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G121" s="6"/>
     </row>
@@ -6923,47 +7216,47 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="6" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G122" s="6"/>
     </row>
     <row r="123" ht="310.5" spans="2:7">
       <c r="B123" s="5"/>
       <c r="C123" s="6" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" ht="40.5" spans="2:7">
       <c r="B124" s="5"/>
       <c r="C124" s="8" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G124" s="6"/>
     </row>
@@ -6971,13 +7264,13 @@
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="6" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G125" s="6"/>
     </row>
@@ -6985,13 +7278,13 @@
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="6" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G126" s="6"/>
     </row>
@@ -6999,13 +7292,13 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="7" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G127" s="6"/>
     </row>
@@ -7013,361 +7306,361 @@
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G128" s="6"/>
     </row>
     <row r="129" ht="94.5" spans="2:7">
       <c r="B129" s="9" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" ht="94.5" spans="2:7">
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="10" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" ht="132" customHeight="1" spans="2:7">
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="10" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G131" s="11" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" ht="128" customHeight="1" spans="2:7">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="10" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G132" s="11" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" ht="216" spans="2:7">
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="10" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G133" s="12" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" ht="108" spans="2:7">
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="10" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="E134" s="11" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
     </row>
     <row r="135" ht="205" customHeight="1" spans="2:7">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="10" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" ht="176" customHeight="1" spans="2:7">
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="10" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G136" s="11" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="137" ht="142" customHeight="1" spans="2:7">
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="10" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="F137" s="10"/>
       <c r="G137" s="11" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" ht="196" customHeight="1" spans="2:7">
       <c r="B138" s="9"/>
       <c r="C138" s="9" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" ht="121.5" spans="2:7">
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="10" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" ht="145" customHeight="1" spans="2:7">
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="10" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="11" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" ht="180" customHeight="1" spans="2:7">
       <c r="B141" s="9"/>
       <c r="C141" s="9" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G141" s="11" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" ht="232" customHeight="1" spans="2:7">
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="10" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="E142" s="11" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" ht="181" customHeight="1" spans="2:7">
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="10" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" ht="201" customHeight="1" spans="2:7">
       <c r="B144" s="9"/>
       <c r="C144" s="9" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" ht="193" customHeight="1" spans="2:7">
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="10" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" ht="216" spans="2:7">
       <c r="B146" s="9"/>
       <c r="C146" s="11" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="E146" s="11" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" ht="120" customHeight="1" spans="2:7">
       <c r="B147" s="9"/>
       <c r="C147" s="9" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G147" s="11" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" ht="102" customHeight="1" spans="2:7">
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="10" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="E148" s="11" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="149" ht="94.5" spans="2:7">
       <c r="B149" s="14" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G149" s="16"/>
     </row>
@@ -7375,13 +7668,13 @@
       <c r="B150" s="14"/>
       <c r="C150" s="14"/>
       <c r="D150" s="15" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G150" s="16"/>
     </row>
@@ -7389,13 +7682,13 @@
       <c r="B151" s="14"/>
       <c r="C151" s="14"/>
       <c r="D151" s="15" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G151" s="16"/>
     </row>
@@ -7403,13 +7696,13 @@
       <c r="B152" s="14"/>
       <c r="C152" s="14"/>
       <c r="D152" s="15" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G152" s="16"/>
     </row>
@@ -7417,13 +7710,13 @@
       <c r="B153" s="14"/>
       <c r="C153" s="14"/>
       <c r="D153" s="15" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="F153" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G153" s="17"/>
     </row>
@@ -7431,13 +7724,13 @@
       <c r="B154" s="14"/>
       <c r="C154" s="14"/>
       <c r="D154" s="15" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G154" s="16"/>
     </row>
@@ -7445,13 +7738,13 @@
       <c r="B155" s="14"/>
       <c r="C155" s="14"/>
       <c r="D155" s="15" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G155" s="16"/>
     </row>
@@ -7459,13 +7752,13 @@
       <c r="B156" s="14"/>
       <c r="C156" s="14"/>
       <c r="D156" s="15" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G156" s="16"/>
     </row>
@@ -7473,10 +7766,10 @@
       <c r="B157" s="14"/>
       <c r="C157" s="14"/>
       <c r="D157" s="15" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="F157" s="15"/>
       <c r="G157" s="16"/>
@@ -7484,16 +7777,16 @@
     <row r="158" ht="27" spans="2:7">
       <c r="B158" s="14"/>
       <c r="C158" s="14" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="F158" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G158" s="16"/>
     </row>
@@ -7501,13 +7794,13 @@
       <c r="B159" s="14"/>
       <c r="C159" s="14"/>
       <c r="D159" s="15" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G159" s="16"/>
     </row>
@@ -7515,10 +7808,10 @@
       <c r="B160" s="14"/>
       <c r="C160" s="14"/>
       <c r="D160" s="15" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="F160" s="15"/>
       <c r="G160" s="16"/>
@@ -7526,16 +7819,16 @@
     <row r="161" ht="27" spans="2:7">
       <c r="B161" s="14"/>
       <c r="C161" s="14" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G161" s="16"/>
     </row>
@@ -7543,13 +7836,13 @@
       <c r="B162" s="14"/>
       <c r="C162" s="14"/>
       <c r="D162" s="15" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="F162" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G162" s="16"/>
     </row>
@@ -7557,29 +7850,29 @@
       <c r="B163" s="14"/>
       <c r="C163" s="14"/>
       <c r="D163" s="15" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G163" s="16"/>
     </row>
     <row r="164" ht="54" spans="2:7">
       <c r="B164" s="14"/>
       <c r="C164" s="14" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G164" s="16"/>
     </row>
@@ -7587,45 +7880,45 @@
       <c r="B165" s="14"/>
       <c r="C165" s="14"/>
       <c r="D165" s="15" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G165" s="16"/>
     </row>
     <row r="166" ht="40.5" spans="2:7">
       <c r="B166" s="14"/>
       <c r="C166" s="16" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G166" s="16"/>
     </row>
     <row r="167" ht="40.5" spans="2:7">
       <c r="B167" s="14"/>
       <c r="C167" s="14" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="F167" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G167" s="16"/>
     </row>
@@ -7633,13 +7926,13 @@
       <c r="B168" s="14"/>
       <c r="C168" s="14"/>
       <c r="D168" s="15" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G168" s="16"/>
     </row>
@@ -7675,20 +7968,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>